--- a/data/pandas_simple_updated.xlsx
+++ b/data/pandas_simple_updated.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JaniceLi/Downloads/DA_CW/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25280" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>ONS</t>
   </si>
@@ -259,6 +272,18 @@
     <t>Cigars, other tobacco products and narcotics</t>
   </si>
   <si>
+    <t>income_m_mean</t>
+  </si>
+  <si>
+    <t>income_m_std</t>
+  </si>
+  <si>
+    <t>income_f_std</t>
+  </si>
+  <si>
+    <t>income_f_mean</t>
+  </si>
+  <si>
     <t>income_mean</t>
   </si>
   <si>
@@ -295,8 +320,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +384,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,12 +435,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -437,14 +467,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -471,6 +502,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,14 +678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:84">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,13 +937,25 @@
       <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>1415</v>
@@ -942,13 +988,13 @@
         <v>225583</v>
       </c>
       <c r="M2">
-        <v>-0.5401965743844349</v>
+        <v>-0.54019657438443491</v>
       </c>
       <c r="N2">
-        <v>29710</v>
+        <v>-0.63041249212872963</v>
       </c>
       <c r="O2">
-        <v>19787</v>
+        <v>-0.31245070889363902</v>
       </c>
       <c r="P2">
         <v>29506</v>
@@ -1002,10 +1048,10 @@
         <v>49.6</v>
       </c>
       <c r="AG2">
-        <v>0.9173387096774194</v>
+        <v>45.5</v>
       </c>
       <c r="AH2">
-        <v>0.09677419354838709</v>
+        <v>4.8</v>
       </c>
       <c r="AI2">
         <v>0.3</v>
@@ -1038,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1101,10 +1147,10 @@
         <v>0.5</v>
       </c>
       <c r="BN2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BO2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP2">
         <v>0.6</v>
@@ -1131,13 +1177,13 @@
         <v>7.5</v>
       </c>
       <c r="BX2">
-        <v>0.1440677966101695</v>
+        <v>1.7</v>
       </c>
       <c r="BY2">
-        <v>0.2711864406779661</v>
+        <v>3.2</v>
       </c>
       <c r="BZ2">
-        <v>0.2203389830508475</v>
+        <v>2.6</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1146,24 +1192,36 @@
         <v>4.3</v>
       </c>
       <c r="CC2">
-        <v>0.3050847457627118</v>
+        <v>3.6</v>
       </c>
       <c r="CD2">
-        <v>0.05932203389830508</v>
+        <v>0.7</v>
       </c>
       <c r="CE2">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF2">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG2">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH2">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI2">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ2">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>1415</v>
@@ -1196,13 +1254,13 @@
         <v>583312</v>
       </c>
       <c r="M3">
-        <v>-0.3296804630036207</v>
+        <v>-0.32968046300362069</v>
       </c>
       <c r="N3">
-        <v>31417</v>
+        <v>-0.36748247674733509</v>
       </c>
       <c r="O3">
-        <v>20342</v>
+        <v>-0.17188588038569291</v>
       </c>
       <c r="P3">
         <v>31106</v>
@@ -1217,7 +1275,7 @@
         <v>7533</v>
       </c>
       <c r="T3">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U3">
         <v>7052177</v>
@@ -1256,10 +1314,10 @@
         <v>54.8</v>
       </c>
       <c r="AG3">
-        <v>0.916058394160584</v>
+        <v>50.2</v>
       </c>
       <c r="AH3">
-        <v>0.09306569343065693</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI3">
         <v>0.4</v>
@@ -1280,7 +1338,7 @@
         <v>0.6</v>
       </c>
       <c r="AO3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP3">
         <v>1</v>
@@ -1292,7 +1350,7 @@
         <v>2.5</v>
       </c>
       <c r="AS3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT3">
         <v>1.8</v>
@@ -1355,10 +1413,10 @@
         <v>0.5</v>
       </c>
       <c r="BN3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP3">
         <v>0.8</v>
@@ -1385,13 +1443,13 @@
         <v>7.9</v>
       </c>
       <c r="BX3">
-        <v>0.1428571428571429</v>
+        <v>1.8</v>
       </c>
       <c r="BY3">
-        <v>0.3015873015873016</v>
+        <v>3.8</v>
       </c>
       <c r="BZ3">
-        <v>0.1825396825396825</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1400,24 +1458,36 @@
         <v>4.7</v>
       </c>
       <c r="CC3">
-        <v>0.3015873015873016</v>
+        <v>3.8</v>
       </c>
       <c r="CD3">
-        <v>0.07142857142857144</v>
+        <v>0.9</v>
       </c>
       <c r="CE3">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF3">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG3">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH3">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI3">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ3">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="4" spans="1:84">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1415</v>
@@ -1450,13 +1520,13 @@
         <v>440388</v>
       </c>
       <c r="M4">
-        <v>-0.5574916259378057</v>
+        <v>-0.55749162593780566</v>
       </c>
       <c r="N4">
-        <v>29903</v>
+        <v>-0.60068461106920457</v>
       </c>
       <c r="O4">
-        <v>19057</v>
+        <v>-0.49733778062481121</v>
       </c>
       <c r="P4">
         <v>29886</v>
@@ -1471,7 +1541,7 @@
         <v>5757</v>
       </c>
       <c r="T4">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U4">
         <v>5283733</v>
@@ -1510,10 +1580,10 @@
         <v>51.4</v>
       </c>
       <c r="AG4">
-        <v>0.9202334630350194</v>
+        <v>47.3</v>
       </c>
       <c r="AH4">
-        <v>0.0953307392996109</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI4">
         <v>0.4</v>
@@ -1543,10 +1613,10 @@
         <v>5.9</v>
       </c>
       <c r="AR4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AT4">
         <v>1.7</v>
@@ -1609,10 +1679,10 @@
         <v>0.5</v>
       </c>
       <c r="BN4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP4">
         <v>0.7</v>
@@ -1639,13 +1709,13 @@
         <v>7.4</v>
       </c>
       <c r="BX4">
-        <v>0.1282051282051282</v>
+        <v>1.5</v>
       </c>
       <c r="BY4">
-        <v>0.2905982905982906</v>
+        <v>3.4</v>
       </c>
       <c r="BZ4">
-        <v>0.2051282051282051</v>
+        <v>2.4</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -1654,24 +1724,36 @@
         <v>4.3</v>
       </c>
       <c r="CC4">
-        <v>0.2905982905982906</v>
+        <v>3.4</v>
       </c>
       <c r="CD4">
-        <v>0.08547008547008547</v>
+        <v>1</v>
       </c>
       <c r="CE4">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF4">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG4">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH4">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI4">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ4">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="5" spans="1:84">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1415</v>
@@ -1704,13 +1786,13 @@
         <v>387581</v>
       </c>
       <c r="M5">
-        <v>-0.4808726878734104</v>
+        <v>-0.48087268787341042</v>
       </c>
       <c r="N5">
-        <v>30510</v>
+        <v>-0.50718811467992142</v>
       </c>
       <c r="O5">
-        <v>18701</v>
+        <v>-0.58750188683891713</v>
       </c>
       <c r="P5">
         <v>30069</v>
@@ -1725,7 +1807,7 @@
         <v>3929</v>
       </c>
       <c r="T5">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U5">
         <v>4533222</v>
@@ -1743,7 +1825,7 @@
         <v>3.7</v>
       </c>
       <c r="Z5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA5">
         <v>0.3</v>
@@ -1764,10 +1846,10 @@
         <v>57.8</v>
       </c>
       <c r="AG5">
-        <v>0.9204152249134949</v>
+        <v>53.2</v>
       </c>
       <c r="AH5">
-        <v>0.09169550173010381</v>
+        <v>5.3</v>
       </c>
       <c r="AI5">
         <v>0.4</v>
@@ -1833,7 +1915,7 @@
         <v>0.1</v>
       </c>
       <c r="BD5">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -1866,7 +1948,7 @@
         <v>2.7</v>
       </c>
       <c r="BO5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP5">
         <v>0.8</v>
@@ -1893,13 +1975,13 @@
         <v>8.1</v>
       </c>
       <c r="BX5">
-        <v>0.1487603305785124</v>
+        <v>1.8</v>
       </c>
       <c r="BY5">
-        <v>0.3388429752066116</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BZ5">
-        <v>0.1818181818181819</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -1908,24 +1990,36 @@
         <v>4</v>
       </c>
       <c r="CC5">
-        <v>0.2644628099173554</v>
+        <v>3.2</v>
       </c>
       <c r="CD5">
-        <v>0.0743801652892562</v>
+        <v>0.9</v>
       </c>
       <c r="CE5">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF5">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG5">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH5">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI5">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ5">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="6" spans="1:84">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>1415</v>
@@ -1958,13 +2052,13 @@
         <v>476617</v>
       </c>
       <c r="M6">
-        <v>-0.3259610970781647</v>
+        <v>-0.32596109707816467</v>
       </c>
       <c r="N6">
-        <v>31836</v>
+        <v>-0.30294370905852192</v>
       </c>
       <c r="O6">
-        <v>19372</v>
+        <v>-0.41755774282300401</v>
       </c>
       <c r="P6">
         <v>31271</v>
@@ -1985,7 +2079,7 @@
         <v>5601847</v>
       </c>
       <c r="V6">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W6">
         <v>0.1</v>
@@ -1997,7 +2091,7 @@
         <v>3.9</v>
       </c>
       <c r="Z6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA6">
         <v>0.9</v>
@@ -2018,10 +2112,10 @@
         <v>55.8</v>
       </c>
       <c r="AG6">
-        <v>0.917562724014337</v>
+        <v>51.2</v>
       </c>
       <c r="AH6">
-        <v>0.09677419354838711</v>
+        <v>5.4</v>
       </c>
       <c r="AI6">
         <v>0.4</v>
@@ -2042,7 +2136,7 @@
         <v>0.7</v>
       </c>
       <c r="AO6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP6">
         <v>0.9</v>
@@ -2132,7 +2226,7 @@
         <v>0.1</v>
       </c>
       <c r="BS6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT6">
         <v>0.3</v>
@@ -2147,13 +2241,13 @@
         <v>7</v>
       </c>
       <c r="BX6">
-        <v>0.1545454545454545</v>
+        <v>1.7</v>
       </c>
       <c r="BY6">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="BZ6">
-        <v>0.1909090909090909</v>
+        <v>2.1</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -2162,24 +2256,36 @@
         <v>4</v>
       </c>
       <c r="CC6">
-        <v>0.2818181818181818</v>
+        <v>3.1</v>
       </c>
       <c r="CD6">
-        <v>0.07272727272727274</v>
+        <v>0.8</v>
       </c>
       <c r="CE6">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF6">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG6">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH6">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI6">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ6">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="7" spans="1:84">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>1415</v>
@@ -2215,10 +2321,10 @@
         <v>-0.1876006846511985</v>
       </c>
       <c r="N7">
-        <v>33348</v>
+        <v>-7.0049635680274377E-2</v>
       </c>
       <c r="O7">
-        <v>19766</v>
+        <v>-0.3177693780804261</v>
       </c>
       <c r="P7">
         <v>33060</v>
@@ -2227,13 +2333,13 @@
         <v>11403</v>
       </c>
       <c r="R7">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S7">
         <v>4586</v>
       </c>
       <c r="T7">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U7">
         <v>5846965</v>
@@ -2251,7 +2357,7 @@
         <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA7">
         <v>0.6</v>
@@ -2272,10 +2378,10 @@
         <v>61.7</v>
       </c>
       <c r="AG7">
-        <v>0.9173419773095624</v>
+        <v>56.6</v>
       </c>
       <c r="AH7">
-        <v>0.08914100486223663</v>
+        <v>5.5</v>
       </c>
       <c r="AI7">
         <v>0.4</v>
@@ -2308,16 +2414,16 @@
         <v>2.8</v>
       </c>
       <c r="AS7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU7">
         <v>0.7</v>
       </c>
       <c r="AV7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW7">
         <v>0.4</v>
@@ -2341,7 +2447,7 @@
         <v>0.2</v>
       </c>
       <c r="BD7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -2374,7 +2480,7 @@
         <v>2.8</v>
       </c>
       <c r="BO7">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -2401,13 +2507,13 @@
         <v>8.6</v>
       </c>
       <c r="BX7">
-        <v>0.1260504201680672</v>
+        <v>1.5</v>
       </c>
       <c r="BY7">
-        <v>0.4201680672268908</v>
+        <v>5</v>
       </c>
       <c r="BZ7">
-        <v>0.1680672268907563</v>
+        <v>2</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -2416,24 +2522,36 @@
         <v>3.3</v>
       </c>
       <c r="CC7">
-        <v>0.2100840336134454</v>
+        <v>2.5</v>
       </c>
       <c r="CD7">
-        <v>0.07563025210084033</v>
+        <v>0.9</v>
       </c>
       <c r="CE7">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF7">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG7">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH7">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI7">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ7">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="8" spans="1:84">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>1415</v>
@@ -2466,13 +2584,13 @@
         <v>465030</v>
       </c>
       <c r="M8">
-        <v>2.5626844489273</v>
+        <v>2.5626844489273002</v>
       </c>
       <c r="N8">
-        <v>50256</v>
+        <v>2.5342975817002871</v>
       </c>
       <c r="O8">
-        <v>31172</v>
+        <v>2.5710278002288218</v>
       </c>
       <c r="P8">
         <v>48059</v>
@@ -2487,7 +2605,7 @@
         <v>8662</v>
       </c>
       <c r="T8">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U8">
         <v>8173941</v>
@@ -2514,7 +2632,7 @@
         <v>1.5</v>
       </c>
       <c r="AC8">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD8">
         <v>13.3</v>
@@ -2526,10 +2644,10 @@
         <v>62.6</v>
       </c>
       <c r="AG8">
-        <v>0.9185303514376997</v>
+        <v>57.5</v>
       </c>
       <c r="AH8">
-        <v>0.0926517571884984</v>
+        <v>5.8</v>
       </c>
       <c r="AI8">
         <v>0.5</v>
@@ -2547,7 +2665,7 @@
         <v>0.6</v>
       </c>
       <c r="AN8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO8">
         <v>2.7</v>
@@ -2562,7 +2680,7 @@
         <v>3.6</v>
       </c>
       <c r="AS8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT8">
         <v>2.1</v>
@@ -2571,7 +2689,7 @@
         <v>0.9</v>
       </c>
       <c r="AV8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW8">
         <v>0.4</v>
@@ -2589,7 +2707,7 @@
         <v>0.6</v>
       </c>
       <c r="BB8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC8">
         <v>0.2</v>
@@ -2628,7 +2746,7 @@
         <v>2.7</v>
       </c>
       <c r="BO8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BP8">
         <v>0.8</v>
@@ -2655,13 +2773,13 @@
         <v>7</v>
       </c>
       <c r="BX8">
-        <v>0.1666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BY8">
-        <v>0.3958333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="BZ8">
-        <v>0.1666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -2670,24 +2788,36 @@
         <v>2.7</v>
       </c>
       <c r="CC8">
-        <v>0.2395833333333333</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CD8">
-        <v>0.04166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="CE8">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF8">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG8">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH8">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI8">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ8">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="9" spans="1:84">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>1415</v>
@@ -2720,13 +2850,13 @@
         <v>775999</v>
       </c>
       <c r="M9">
-        <v>0.3411071816523832</v>
+        <v>0.34110718165238318</v>
       </c>
       <c r="N9">
-        <v>36254</v>
+        <v>0.37756291540252129</v>
       </c>
       <c r="O9">
-        <v>22168</v>
+        <v>0.29058506890351338</v>
       </c>
       <c r="P9">
         <v>35593</v>
@@ -2741,7 +2871,7 @@
         <v>6092</v>
       </c>
       <c r="T9">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U9">
         <v>8634750</v>
@@ -2759,7 +2889,7 @@
         <v>1.8</v>
       </c>
       <c r="Z9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA9">
         <v>0.3</v>
@@ -2780,10 +2910,10 @@
         <v>64.2</v>
       </c>
       <c r="AG9">
-        <v>0.9221183800623053</v>
+        <v>59.2</v>
       </c>
       <c r="AH9">
-        <v>0.08878504672897196</v>
+        <v>5.7</v>
       </c>
       <c r="AI9">
         <v>0.5</v>
@@ -2816,7 +2946,7 @@
         <v>3.1</v>
       </c>
       <c r="AS9">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT9">
         <v>2.4</v>
@@ -2825,7 +2955,7 @@
         <v>0.8</v>
       </c>
       <c r="AV9">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW9">
         <v>0.5</v>
@@ -2837,7 +2967,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ9">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BA9">
         <v>0.4</v>
@@ -2909,13 +3039,13 @@
         <v>8.9</v>
       </c>
       <c r="BX9">
-        <v>0.136</v>
+        <v>1.7</v>
       </c>
       <c r="BY9">
-        <v>0.408</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BZ9">
-        <v>0.176</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -2924,24 +3054,36 @@
         <v>3.6</v>
       </c>
       <c r="CC9">
-        <v>0.224</v>
+        <v>2.8</v>
       </c>
       <c r="CD9">
-        <v>0.064</v>
+        <v>0.8</v>
       </c>
       <c r="CE9">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF9">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG9">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH9">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI9">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ9">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="10" spans="1:84">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>1415</v>
@@ -2974,13 +3116,13 @@
         <v>536489</v>
       </c>
       <c r="M10">
-        <v>-0.4819884976510472</v>
+        <v>-0.48198849765104718</v>
       </c>
       <c r="N10">
-        <v>30991</v>
+        <v>-0.43309945773882552</v>
       </c>
       <c r="O10">
-        <v>18821</v>
+        <v>-0.55710949148584776</v>
       </c>
       <c r="P10">
         <v>31175</v>
@@ -2989,13 +3131,13 @@
         <v>11175</v>
       </c>
       <c r="R10">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="S10">
         <v>3932</v>
       </c>
       <c r="T10">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U10">
         <v>5288935</v>
@@ -3034,10 +3176,10 @@
         <v>60.4</v>
       </c>
       <c r="AG10">
-        <v>0.9205298013245033</v>
+        <v>55.6</v>
       </c>
       <c r="AH10">
-        <v>0.08774834437086093</v>
+        <v>5.3</v>
       </c>
       <c r="AI10">
         <v>0.4</v>
@@ -3058,10 +3200,10 @@
         <v>0.7</v>
       </c>
       <c r="AO10">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ10">
         <v>6.1</v>
@@ -3079,7 +3221,7 @@
         <v>0.7</v>
       </c>
       <c r="AV10">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW10">
         <v>0.5</v>
@@ -3163,39 +3305,51 @@
         <v>7.7</v>
       </c>
       <c r="BX10">
-        <v>0.1401869158878505</v>
+        <v>1.5</v>
       </c>
       <c r="BY10">
-        <v>0.3831775700934579</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BZ10">
-        <v>0.1869158878504673</v>
+        <v>2</v>
       </c>
       <c r="CA10">
-        <v>0.009345794392523366</v>
+        <v>0.1</v>
       </c>
       <c r="CB10">
         <v>3</v>
       </c>
       <c r="CC10">
-        <v>0.1775700934579439</v>
+        <v>1.9</v>
       </c>
       <c r="CD10">
-        <v>0.102803738317757</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CE10">
-        <v>27498.77777777778</v>
+        <v>33802.777777777781</v>
       </c>
       <c r="CF10">
-        <v>5377.260640883981</v>
+        <v>6492.2218846863207</v>
+      </c>
+      <c r="CG10">
+        <v>3948.3561136250109</v>
+      </c>
+      <c r="CH10">
+        <v>21020.666666666672</v>
+      </c>
+      <c r="CI10">
+        <v>27498.777777777781</v>
+      </c>
+      <c r="CJ10">
+        <v>5377.2606408839811</v>
       </c>
     </row>
-    <row r="11" spans="1:84">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>1314</v>
@@ -3228,13 +3382,13 @@
         <v>223939</v>
       </c>
       <c r="M11">
-        <v>-0.430015963075202</v>
+        <v>-0.43001596307520201</v>
       </c>
       <c r="N11">
-        <v>30510</v>
+        <v>-0.42313725770987698</v>
       </c>
       <c r="O11">
-        <v>19265</v>
+        <v>-0.32325062368951302</v>
       </c>
       <c r="P11">
         <v>29989</v>
@@ -3288,10 +3442,10 @@
         <v>49.9</v>
       </c>
       <c r="AG11">
-        <v>0.9178356713426853</v>
+        <v>45.8</v>
       </c>
       <c r="AH11">
-        <v>0.09819639278557116</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI11">
         <v>0.4</v>
@@ -3324,7 +3478,7 @@
         <v>2.1</v>
       </c>
       <c r="AS11">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT11">
         <v>1.4</v>
@@ -3387,10 +3541,10 @@
         <v>0.5</v>
       </c>
       <c r="BN11">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO11">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP11">
         <v>0.6</v>
@@ -3417,39 +3571,51 @@
         <v>7.2</v>
       </c>
       <c r="BX11">
-        <v>0.1440677966101695</v>
+        <v>1.7</v>
       </c>
       <c r="BY11">
-        <v>0.2457627118644068</v>
+        <v>2.9</v>
       </c>
       <c r="BZ11">
-        <v>0.211864406779661</v>
+        <v>2.5</v>
       </c>
       <c r="CA11">
         <v>0</v>
       </c>
       <c r="CB11">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="CC11">
-        <v>0.3389830508474576</v>
+        <v>4</v>
       </c>
       <c r="CD11">
-        <v>0.05932203389830508</v>
+        <v>0.7</v>
       </c>
       <c r="CE11">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF11">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG11">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH11">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI11">
         <v>26895</v>
       </c>
-      <c r="CF11">
-        <v>5190.504985066482</v>
+      <c r="CJ11">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="12" spans="1:84">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>1314</v>
@@ -3482,13 +3648,13 @@
         <v>576597</v>
       </c>
       <c r="M12">
-        <v>-0.3462090885511371</v>
+        <v>-0.34620908855113708</v>
       </c>
       <c r="N12">
-        <v>30399</v>
+        <v>-0.44111056101580698</v>
       </c>
       <c r="O12">
-        <v>20195</v>
+        <v>-8.118139936445079E-2</v>
       </c>
       <c r="P12">
         <v>30351</v>
@@ -3503,7 +3669,7 @@
         <v>7533</v>
       </c>
       <c r="T12">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U12">
         <v>7052177</v>
@@ -3542,10 +3708,10 @@
         <v>54.1</v>
       </c>
       <c r="AG12">
-        <v>0.9168207024029575</v>
+        <v>49.6</v>
       </c>
       <c r="AH12">
-        <v>0.0942698706099815</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI12">
         <v>0.4</v>
@@ -3566,16 +3732,16 @@
         <v>0.6</v>
       </c>
       <c r="AO12">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ12">
         <v>6.4</v>
       </c>
       <c r="AR12">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS12">
         <v>2.4</v>
@@ -3671,39 +3837,51 @@
         <v>8</v>
       </c>
       <c r="BX12">
-        <v>0.1278195488721804</v>
+        <v>1.7</v>
       </c>
       <c r="BY12">
-        <v>0.3007518796992481</v>
+        <v>4</v>
       </c>
       <c r="BZ12">
-        <v>0.1729323308270677</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CA12">
-        <v>0.007518796992481203</v>
+        <v>0.1</v>
       </c>
       <c r="CB12">
         <v>5.2</v>
       </c>
       <c r="CC12">
-        <v>0.3233082706766917</v>
+        <v>4.3</v>
       </c>
       <c r="CD12">
-        <v>0.06766917293233082</v>
+        <v>0.9</v>
       </c>
       <c r="CE12">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF12">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG12">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH12">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI12">
         <v>26895</v>
       </c>
-      <c r="CF12">
-        <v>5190.504985066482</v>
+      <c r="CJ12">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="13" spans="1:84">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>1314</v>
@@ -3736,13 +3914,13 @@
         <v>435768</v>
       </c>
       <c r="M13">
-        <v>-0.5564005830471251</v>
+        <v>-0.55640058304712514</v>
       </c>
       <c r="N13">
-        <v>29315</v>
+        <v>-0.61663363113858283</v>
       </c>
       <c r="O13">
-        <v>18749</v>
+        <v>-0.45755999976664419</v>
       </c>
       <c r="P13">
         <v>29371</v>
@@ -3757,7 +3935,7 @@
         <v>5757</v>
       </c>
       <c r="T13">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U13">
         <v>5283733</v>
@@ -3796,10 +3974,10 @@
         <v>51.1</v>
       </c>
       <c r="AG13">
-        <v>0.9197651663405088</v>
+        <v>47</v>
       </c>
       <c r="AH13">
-        <v>0.09589041095890412</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI13">
         <v>0.4</v>
@@ -3829,10 +4007,10 @@
         <v>5.8</v>
       </c>
       <c r="AR13">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS13">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT13">
         <v>1.6</v>
@@ -3895,10 +4073,10 @@
         <v>0.5</v>
       </c>
       <c r="BN13">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO13">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP13">
         <v>0.7</v>
@@ -3925,13 +4103,13 @@
         <v>7.4</v>
       </c>
       <c r="BX13">
-        <v>0.139344262295082</v>
+        <v>1.7</v>
       </c>
       <c r="BY13">
-        <v>0.2622950819672131</v>
+        <v>3.2</v>
       </c>
       <c r="BZ13">
-        <v>0.2049180327868853</v>
+        <v>2.5</v>
       </c>
       <c r="CA13">
         <v>0</v>
@@ -3940,30 +4118,42 @@
         <v>4.8</v>
       </c>
       <c r="CC13">
-        <v>0.319672131147541</v>
+        <v>3.9</v>
       </c>
       <c r="CD13">
-        <v>0.0737704918032787</v>
+        <v>0.9</v>
       </c>
       <c r="CE13">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF13">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG13">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH13">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI13">
         <v>26895</v>
       </c>
-      <c r="CF13">
-        <v>5190.504985066482</v>
+      <c r="CJ13">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="14" spans="1:84">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>1314</v>
       </c>
       <c r="D14">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E14">
         <v>855060</v>
@@ -3993,10 +4183,10 @@
         <v>-0.5095843290026475</v>
       </c>
       <c r="N14">
-        <v>29929</v>
+        <v>-0.51721373717605112</v>
       </c>
       <c r="O14">
-        <v>18102</v>
+        <v>-0.62596729884010149</v>
       </c>
       <c r="P14">
         <v>29407</v>
@@ -4011,7 +4201,7 @@
         <v>3929</v>
       </c>
       <c r="T14">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U14">
         <v>4533222</v>
@@ -4029,7 +4219,7 @@
         <v>3.7</v>
       </c>
       <c r="Z14">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA14">
         <v>0.3</v>
@@ -4050,10 +4240,10 @@
         <v>57.6</v>
       </c>
       <c r="AG14">
-        <v>0.9184027777777777</v>
+        <v>52.9</v>
       </c>
       <c r="AH14">
-        <v>0.0954861111111111</v>
+        <v>5.5</v>
       </c>
       <c r="AI14">
         <v>0.4</v>
@@ -4152,7 +4342,7 @@
         <v>2.7</v>
       </c>
       <c r="BO14">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP14">
         <v>0.8</v>
@@ -4164,7 +4354,7 @@
         <v>0.1</v>
       </c>
       <c r="BS14">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT14">
         <v>0.2</v>
@@ -4179,45 +4369,57 @@
         <v>8.5</v>
       </c>
       <c r="BX14">
-        <v>0.140625</v>
+        <v>1.8</v>
       </c>
       <c r="BY14">
-        <v>0.328125</v>
+        <v>4.2</v>
       </c>
       <c r="BZ14">
-        <v>0.1953125</v>
+        <v>2.5</v>
       </c>
       <c r="CA14">
-        <v>0.0078125</v>
+        <v>0.1</v>
       </c>
       <c r="CB14">
         <v>4.3</v>
       </c>
       <c r="CC14">
-        <v>0.28125</v>
+        <v>3.6</v>
       </c>
       <c r="CD14">
-        <v>0.05468749999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CE14">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF14">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG14">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH14">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI14">
         <v>26895</v>
       </c>
-      <c r="CF14">
-        <v>5190.504985066482</v>
+      <c r="CJ14">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="15" spans="1:84">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>1314</v>
       </c>
       <c r="D15">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="E15">
         <v>1114220</v>
@@ -4247,10 +4449,10 @@
         <v>-0.4053555494221438</v>
       </c>
       <c r="N15">
-        <v>30527</v>
+        <v>-0.42038458963599579</v>
       </c>
       <c r="O15">
-        <v>18711</v>
+        <v>-0.46745100033046399</v>
       </c>
       <c r="P15">
         <v>30179</v>
@@ -4271,7 +4473,7 @@
         <v>5601847</v>
       </c>
       <c r="V15">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W15">
         <v>0.1</v>
@@ -4283,7 +4485,7 @@
         <v>3.9</v>
       </c>
       <c r="Z15">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA15">
         <v>0.9</v>
@@ -4304,10 +4506,10 @@
         <v>55.9</v>
       </c>
       <c r="AG15">
-        <v>0.9177101967799642</v>
+        <v>51.3</v>
       </c>
       <c r="AH15">
-        <v>0.09838998211091235</v>
+        <v>5.5</v>
       </c>
       <c r="AI15">
         <v>0.4</v>
@@ -4328,7 +4530,7 @@
         <v>0.7</v>
       </c>
       <c r="AO15">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP15">
         <v>0.9</v>
@@ -4406,7 +4608,7 @@
         <v>2.4</v>
       </c>
       <c r="BO15">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP15">
         <v>0.8</v>
@@ -4418,7 +4620,7 @@
         <v>0.1</v>
       </c>
       <c r="BS15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT15">
         <v>0.3</v>
@@ -4433,13 +4635,13 @@
         <v>7.1</v>
       </c>
       <c r="BX15">
-        <v>0.1504424778761062</v>
+        <v>1.7</v>
       </c>
       <c r="BY15">
-        <v>0.2920353982300884</v>
+        <v>3.3</v>
       </c>
       <c r="BZ15">
-        <v>0.1769911504424779</v>
+        <v>2</v>
       </c>
       <c r="CA15">
         <v>0</v>
@@ -4448,30 +4650,42 @@
         <v>4.2</v>
       </c>
       <c r="CC15">
-        <v>0.3008849557522124</v>
+        <v>3.4</v>
       </c>
       <c r="CD15">
-        <v>0.07964601769911504</v>
+        <v>0.9</v>
       </c>
       <c r="CE15">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF15">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG15">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH15">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI15">
         <v>26895</v>
       </c>
-      <c r="CF15">
-        <v>5190.504985066482</v>
+      <c r="CJ15">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="16" spans="1:84">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>1314</v>
       </c>
       <c r="D16">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="E16">
         <v>1143102</v>
@@ -4498,13 +4712,13 @@
         <v>528548</v>
       </c>
       <c r="M16">
-        <v>-0.1918888437378589</v>
+        <v>-0.19188884373785889</v>
       </c>
       <c r="N16">
-        <v>32517</v>
+        <v>-9.8160503340494046E-2</v>
       </c>
       <c r="O16">
-        <v>19384</v>
+        <v>-0.29227617455544591</v>
       </c>
       <c r="P16">
         <v>32484</v>
@@ -4519,7 +4733,7 @@
         <v>4586</v>
       </c>
       <c r="T16">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U16">
         <v>5846965</v>
@@ -4537,7 +4751,7 @@
         <v>1.5</v>
       </c>
       <c r="Z16">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA16">
         <v>0.6</v>
@@ -4558,10 +4772,10 @@
         <v>61.6</v>
       </c>
       <c r="AG16">
-        <v>0.9172077922077921</v>
+        <v>56.5</v>
       </c>
       <c r="AH16">
-        <v>0.09253246753246754</v>
+        <v>5.7</v>
       </c>
       <c r="AI16">
         <v>0.4</v>
@@ -4597,13 +4811,13 @@
         <v>2.4</v>
       </c>
       <c r="AT16">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU16">
         <v>0.8</v>
       </c>
       <c r="AV16">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW16">
         <v>0.5</v>
@@ -4660,7 +4874,7 @@
         <v>2.7</v>
       </c>
       <c r="BO16">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BP16">
         <v>0.8</v>
@@ -4684,42 +4898,54 @@
         <v>11.9</v>
       </c>
       <c r="BW16">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BX16">
-        <v>0.1176470588235294</v>
+        <v>1.4</v>
       </c>
       <c r="BY16">
-        <v>0.4033613445378151</v>
+        <v>4.8</v>
       </c>
       <c r="BZ16">
-        <v>0.1764705882352941</v>
+        <v>2.1</v>
       </c>
       <c r="CA16">
-        <v>0.008403361344537815</v>
+        <v>0.1</v>
       </c>
       <c r="CB16">
         <v>3.6</v>
       </c>
       <c r="CC16">
-        <v>0.2184873949579832</v>
+        <v>2.6</v>
       </c>
       <c r="CD16">
-        <v>0.07563025210084033</v>
+        <v>0.9</v>
       </c>
       <c r="CE16">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF16">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG16">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH16">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI16">
         <v>26895</v>
       </c>
-      <c r="CF16">
-        <v>5190.504985066482</v>
+      <c r="CJ16">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="17" spans="1:84">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>1314</v>
@@ -4755,10 +4981,10 @@
         <v>2.559481213913108</v>
       </c>
       <c r="N17">
-        <v>48712</v>
+        <v>2.524160641159833</v>
       </c>
       <c r="O17">
-        <v>30392</v>
+        <v>2.5729905150900221</v>
       </c>
       <c r="P17">
         <v>46946</v>
@@ -4773,7 +4999,7 @@
         <v>8662</v>
       </c>
       <c r="T17">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U17">
         <v>8173941</v>
@@ -4800,7 +5026,7 @@
         <v>1.5</v>
       </c>
       <c r="AC17">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD17">
         <v>13.3</v>
@@ -4812,10 +5038,10 @@
         <v>63.8</v>
       </c>
       <c r="AG17">
-        <v>0.9169278996865204</v>
+        <v>58.5</v>
       </c>
       <c r="AH17">
-        <v>0.09090909090909091</v>
+        <v>5.8</v>
       </c>
       <c r="AI17">
         <v>0.6</v>
@@ -4833,7 +5059,7 @@
         <v>0.6</v>
       </c>
       <c r="AN17">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO17">
         <v>2.9</v>
@@ -4848,7 +5074,7 @@
         <v>3.8</v>
       </c>
       <c r="AS17">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT17">
         <v>2.1</v>
@@ -4857,7 +5083,7 @@
         <v>0.9</v>
       </c>
       <c r="AV17">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW17">
         <v>0.4</v>
@@ -4875,7 +5101,7 @@
         <v>0.6</v>
       </c>
       <c r="BB17">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC17">
         <v>0.1</v>
@@ -4941,13 +5167,13 @@
         <v>7.1</v>
       </c>
       <c r="BX17">
-        <v>0.1584158415841584</v>
+        <v>1.6</v>
       </c>
       <c r="BY17">
-        <v>0.4059405940594059</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BZ17">
-        <v>0.1386138613861386</v>
+        <v>1.4</v>
       </c>
       <c r="CA17">
         <v>0</v>
@@ -4956,30 +5182,42 @@
         <v>3</v>
       </c>
       <c r="CC17">
-        <v>0.2475247524752475</v>
+        <v>2.5</v>
       </c>
       <c r="CD17">
-        <v>0.04950495049504951</v>
+        <v>0.5</v>
       </c>
       <c r="CE17">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF17">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG17">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH17">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI17">
         <v>26895</v>
       </c>
-      <c r="CF17">
-        <v>5190.504985066482</v>
+      <c r="CJ17">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="18" spans="1:84">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>1314</v>
       </c>
       <c r="D18">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E18">
         <v>1689716</v>
@@ -5006,13 +5244,13 @@
         <v>766328</v>
       </c>
       <c r="M18">
-        <v>0.368172269460892</v>
+        <v>0.36817226946089199</v>
       </c>
       <c r="N18">
-        <v>35933</v>
+        <v>0.45496385785821658</v>
       </c>
       <c r="O18">
-        <v>21396</v>
+        <v>0.23142627634995749</v>
       </c>
       <c r="P18">
         <v>35151</v>
@@ -5027,7 +5265,7 @@
         <v>6092</v>
       </c>
       <c r="T18">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U18">
         <v>8634750</v>
@@ -5045,7 +5283,7 @@
         <v>1.8</v>
       </c>
       <c r="Z18">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA18">
         <v>0.3</v>
@@ -5066,10 +5304,10 @@
         <v>63.6</v>
       </c>
       <c r="AG18">
-        <v>0.9229559748427674</v>
+        <v>58.7</v>
       </c>
       <c r="AH18">
-        <v>0.0880503144654088</v>
+        <v>5.6</v>
       </c>
       <c r="AI18">
         <v>0.5</v>
@@ -5093,7 +5331,7 @@
         <v>2.6</v>
       </c>
       <c r="AP18">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ18">
         <v>6.4</v>
@@ -5105,7 +5343,7 @@
         <v>2.4</v>
       </c>
       <c r="AT18">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AU18">
         <v>0.9</v>
@@ -5123,7 +5361,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ18">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BA18">
         <v>0.4</v>
@@ -5168,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="BO18">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BP18">
         <v>0.8</v>
@@ -5192,16 +5430,16 @@
         <v>12.6</v>
       </c>
       <c r="BW18">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="BX18">
-        <v>0.1190476190476191</v>
+        <v>1.5</v>
       </c>
       <c r="BY18">
-        <v>0.388888888888889</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BZ18">
-        <v>0.1746031746031746</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA18">
         <v>0</v>
@@ -5210,24 +5448,36 @@
         <v>3.9</v>
       </c>
       <c r="CC18">
-        <v>0.253968253968254</v>
+        <v>3.2</v>
       </c>
       <c r="CD18">
-        <v>0.05555555555555555</v>
+        <v>0.7</v>
       </c>
       <c r="CE18">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF18">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG18">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH18">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI18">
         <v>26895</v>
       </c>
-      <c r="CF18">
-        <v>5190.504985066482</v>
+      <c r="CJ18">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="19" spans="1:84">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>1314</v>
@@ -5260,13 +5510,13 @@
         <v>530874</v>
       </c>
       <c r="M19">
-        <v>-0.4881991265378861</v>
+        <v>-0.48819912653788611</v>
       </c>
       <c r="N19">
-        <v>30267</v>
+        <v>-0.46248421900123732</v>
       </c>
       <c r="O19">
-        <v>18368</v>
+        <v>-0.55673029489336334</v>
       </c>
       <c r="P19">
         <v>30591</v>
@@ -5281,7 +5531,7 @@
         <v>3932</v>
       </c>
       <c r="T19">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U19">
         <v>5288935</v>
@@ -5320,10 +5570,10 @@
         <v>60.6</v>
       </c>
       <c r="AG19">
-        <v>0.9207920792079207</v>
+        <v>55.8</v>
       </c>
       <c r="AH19">
-        <v>0.08910891089108912</v>
+        <v>5.4</v>
       </c>
       <c r="AI19">
         <v>0.4</v>
@@ -5344,10 +5594,10 @@
         <v>0.7</v>
       </c>
       <c r="AO19">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP19">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ19">
         <v>6.1</v>
@@ -5359,13 +5609,13 @@
         <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU19">
         <v>0.7</v>
       </c>
       <c r="AV19">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW19">
         <v>0.5</v>
@@ -5422,7 +5672,7 @@
         <v>2.7</v>
       </c>
       <c r="BO19">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BP19">
         <v>0.9</v>
@@ -5449,39 +5699,51 @@
         <v>7.8</v>
       </c>
       <c r="BX19">
-        <v>0.1272727272727273</v>
+        <v>1.4</v>
       </c>
       <c r="BY19">
-        <v>0.3909090909090909</v>
+        <v>4.3</v>
       </c>
       <c r="BZ19">
-        <v>0.1818181818181818</v>
+        <v>2</v>
       </c>
       <c r="CA19">
-        <v>0.009090909090909092</v>
+        <v>0.1</v>
       </c>
       <c r="CB19">
         <v>3.2</v>
       </c>
       <c r="CC19">
-        <v>0.1727272727272727</v>
+        <v>1.9</v>
       </c>
       <c r="CD19">
-        <v>0.1181818181818182</v>
+        <v>1.3</v>
       </c>
       <c r="CE19">
+        <v>33123.222222222219</v>
+      </c>
+      <c r="CF19">
+        <v>6175.826341470427</v>
+      </c>
+      <c r="CG19">
+        <v>3841.876234341757</v>
+      </c>
+      <c r="CH19">
+        <v>20506.888888888891</v>
+      </c>
+      <c r="CI19">
         <v>26895</v>
       </c>
-      <c r="CF19">
-        <v>5190.504985066482</v>
+      <c r="CJ19">
+        <v>5190.5049850664818</v>
       </c>
     </row>
-    <row r="20" spans="1:84">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>1213</v>
@@ -5514,13 +5776,13 @@
         <v>219258</v>
       </c>
       <c r="M20">
-        <v>-0.5021424750438215</v>
+        <v>-0.50214247504382148</v>
       </c>
       <c r="N20">
-        <v>29245</v>
+        <v>-0.51568540332599189</v>
       </c>
       <c r="O20">
-        <v>18856</v>
+        <v>-0.33947474789625598</v>
       </c>
       <c r="P20">
         <v>28957</v>
@@ -5574,10 +5836,10 @@
         <v>49.8</v>
       </c>
       <c r="AG20">
-        <v>0.9176706827309238</v>
+        <v>45.7</v>
       </c>
       <c r="AH20">
-        <v>0.1004016064257028</v>
+        <v>5</v>
       </c>
       <c r="AI20">
         <v>0.4</v>
@@ -5610,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT20">
         <v>1.4</v>
@@ -5673,10 +5935,10 @@
         <v>0.5</v>
       </c>
       <c r="BN20">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO20">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP20">
         <v>0.6</v>
@@ -5703,13 +5965,13 @@
         <v>6.8</v>
       </c>
       <c r="BX20">
-        <v>0.1293103448275862</v>
+        <v>1.5</v>
       </c>
       <c r="BY20">
-        <v>0.2413793103448276</v>
+        <v>2.8</v>
       </c>
       <c r="BZ20">
-        <v>0.2155172413793104</v>
+        <v>2.5</v>
       </c>
       <c r="CA20">
         <v>0</v>
@@ -5718,24 +5980,36 @@
         <v>4.7</v>
       </c>
       <c r="CC20">
-        <v>0.353448275862069</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CD20">
-        <v>0.06034482758620689</v>
+        <v>0.7</v>
       </c>
       <c r="CE20">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF20">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG20">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH20">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI20">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ20">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="21" spans="1:84">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>1213</v>
@@ -5768,13 +6042,13 @@
         <v>564935</v>
       </c>
       <c r="M21">
-        <v>-0.3531200556620483</v>
+        <v>-0.35312005566204829</v>
       </c>
       <c r="N21">
-        <v>29843</v>
+        <v>-0.42969256550413321</v>
       </c>
       <c r="O21">
-        <v>19596</v>
+        <v>-0.15170779988620181</v>
       </c>
       <c r="P21">
         <v>29901</v>
@@ -5789,7 +6063,7 @@
         <v>7533</v>
       </c>
       <c r="T21">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U21">
         <v>7052177</v>
@@ -5828,10 +6102,10 @@
         <v>53.6</v>
       </c>
       <c r="AG21">
-        <v>0.917910447761194</v>
+        <v>49.2</v>
       </c>
       <c r="AH21">
-        <v>0.09514925373134328</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI21">
         <v>0.4</v>
@@ -5852,16 +6126,16 @@
         <v>0.6</v>
       </c>
       <c r="AO21">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP21">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ21">
         <v>6.3</v>
       </c>
       <c r="AR21">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS21">
         <v>2.4</v>
@@ -5930,7 +6204,7 @@
         <v>2.4</v>
       </c>
       <c r="BO21">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BP21">
         <v>0.8</v>
@@ -5957,39 +6231,51 @@
         <v>7.9</v>
       </c>
       <c r="BX21">
-        <v>0.1278195488721804</v>
+        <v>1.7</v>
       </c>
       <c r="BY21">
-        <v>0.2932330827067669</v>
+        <v>3.9</v>
       </c>
       <c r="BZ21">
-        <v>0.1654135338345865</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA21">
-        <v>0.007518796992481203</v>
+        <v>0.1</v>
       </c>
       <c r="CB21">
         <v>5.3</v>
       </c>
       <c r="CC21">
-        <v>0.3308270676691729</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CD21">
-        <v>0.06766917293233082</v>
+        <v>0.9</v>
       </c>
       <c r="CE21">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF21">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG21">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH21">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI21">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ21">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="22" spans="1:84">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22">
         <v>1213</v>
@@ -6022,13 +6308,13 @@
         <v>427146</v>
       </c>
       <c r="M22">
-        <v>-0.5278665831513895</v>
+        <v>-0.52786658315138946</v>
       </c>
       <c r="N22">
-        <v>28905</v>
+        <v>-0.56457765225480794</v>
       </c>
       <c r="O22">
-        <v>18348</v>
+        <v>-0.4683742203139688</v>
       </c>
       <c r="P22">
         <v>28957</v>
@@ -6043,7 +6329,7 @@
         <v>5757</v>
       </c>
       <c r="T22">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U22">
         <v>5283733</v>
@@ -6082,10 +6368,10 @@
         <v>51.3</v>
       </c>
       <c r="AG22">
-        <v>0.9200779727095517</v>
+        <v>47.2</v>
       </c>
       <c r="AH22">
-        <v>0.09551656920077974</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI22">
         <v>0.4</v>
@@ -6115,10 +6401,10 @@
         <v>5.8</v>
       </c>
       <c r="AR22">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS22">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT22">
         <v>1.6</v>
@@ -6181,10 +6467,10 @@
         <v>0.5</v>
       </c>
       <c r="BN22">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO22">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP22">
         <v>0.7</v>
@@ -6211,39 +6497,51 @@
         <v>7.6</v>
       </c>
       <c r="BX22">
-        <v>0.136</v>
+        <v>1.7</v>
       </c>
       <c r="BY22">
-        <v>0.264</v>
+        <v>3.3</v>
       </c>
       <c r="BZ22">
-        <v>0.208</v>
+        <v>2.6</v>
       </c>
       <c r="CA22">
         <v>0</v>
       </c>
       <c r="CB22">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="CC22">
-        <v>0.328</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CD22">
-        <v>0.064</v>
+        <v>0.8</v>
       </c>
       <c r="CE22">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF22">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG22">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH22">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI22">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ22">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="23" spans="1:84">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>1213</v>
@@ -6276,13 +6574,13 @@
         <v>374157</v>
       </c>
       <c r="M23">
-        <v>-0.4235508895841483</v>
+        <v>-0.42355088958414833</v>
       </c>
       <c r="N23">
-        <v>29652</v>
+        <v>-0.45715850534355629</v>
       </c>
       <c r="O23">
-        <v>18235</v>
+        <v>-0.49704674075334188</v>
       </c>
       <c r="P23">
         <v>29346</v>
@@ -6297,7 +6595,7 @@
         <v>3929</v>
       </c>
       <c r="T23">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U23">
         <v>4533222</v>
@@ -6315,7 +6613,7 @@
         <v>3.7</v>
       </c>
       <c r="Z23">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA23">
         <v>0.3</v>
@@ -6336,10 +6634,10 @@
         <v>56.8</v>
       </c>
       <c r="AG23">
-        <v>0.920774647887324</v>
+        <v>52.3</v>
       </c>
       <c r="AH23">
-        <v>0.09507042253521128</v>
+        <v>5.4</v>
       </c>
       <c r="AI23">
         <v>0.5</v>
@@ -6360,7 +6658,7 @@
         <v>0.6</v>
       </c>
       <c r="AO23">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP23">
         <v>1</v>
@@ -6369,7 +6667,7 @@
         <v>5.8</v>
       </c>
       <c r="AR23">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS23">
         <v>2.6</v>
@@ -6405,7 +6703,7 @@
         <v>0.1</v>
       </c>
       <c r="BD23">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BE23">
         <v>0</v>
@@ -6438,7 +6736,7 @@
         <v>2.7</v>
       </c>
       <c r="BO23">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP23">
         <v>0.8</v>
@@ -6450,7 +6748,7 @@
         <v>0.1</v>
       </c>
       <c r="BS23">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT23">
         <v>0.2</v>
@@ -6462,42 +6760,54 @@
         <v>12.5</v>
       </c>
       <c r="BW23">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BX23">
-        <v>0.144</v>
+        <v>1.8</v>
       </c>
       <c r="BY23">
-        <v>0.312</v>
+        <v>3.9</v>
       </c>
       <c r="BZ23">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="CA23">
-        <v>0.008</v>
+        <v>0.1</v>
       </c>
       <c r="CB23">
         <v>4.2</v>
       </c>
       <c r="CC23">
-        <v>0.28</v>
+        <v>3.5</v>
       </c>
       <c r="CD23">
-        <v>0.05599999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CE23">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF23">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG23">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH23">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI23">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ23">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="24" spans="1:84">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>1213</v>
@@ -6530,13 +6840,13 @@
         <v>460701</v>
       </c>
       <c r="M24">
-        <v>-0.4350823863220236</v>
+        <v>-0.43508238632202362</v>
       </c>
       <c r="N24">
-        <v>29680</v>
+        <v>-0.45313208484353618</v>
       </c>
       <c r="O24">
-        <v>18288</v>
+        <v>-0.48359856744991908</v>
       </c>
       <c r="P24">
         <v>29550</v>
@@ -6557,7 +6867,7 @@
         <v>5601847</v>
       </c>
       <c r="V24">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W24">
         <v>0.1</v>
@@ -6569,7 +6879,7 @@
         <v>3.9</v>
       </c>
       <c r="Z24">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA24">
         <v>0.9</v>
@@ -6590,10 +6900,10 @@
         <v>55.5</v>
       </c>
       <c r="AG24">
-        <v>0.9171171171171171</v>
+        <v>50.9</v>
       </c>
       <c r="AH24">
-        <v>0.0972972972972973</v>
+        <v>5.4</v>
       </c>
       <c r="AI24">
         <v>0.4</v>
@@ -6614,7 +6924,7 @@
         <v>0.7</v>
       </c>
       <c r="AO24">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP24">
         <v>0.9</v>
@@ -6704,7 +7014,7 @@
         <v>0.1</v>
       </c>
       <c r="BS24">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT24">
         <v>0.3</v>
@@ -6719,39 +7029,51 @@
         <v>7</v>
       </c>
       <c r="BX24">
-        <v>0.1403508771929824</v>
+        <v>1.6</v>
       </c>
       <c r="BY24">
-        <v>0.2807017543859649</v>
+        <v>3.2</v>
       </c>
       <c r="BZ24">
-        <v>0.1842105263157895</v>
+        <v>2.1</v>
       </c>
       <c r="CA24">
-        <v>0.008771929824561403</v>
+        <v>0.1</v>
       </c>
       <c r="CB24">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CC24">
-        <v>0.3157894736842105</v>
+        <v>3.6</v>
       </c>
       <c r="CD24">
-        <v>0.07894736842105263</v>
+        <v>0.9</v>
       </c>
       <c r="CE24">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF24">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG24">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH24">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI24">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ24">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="25" spans="1:84">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <v>1213</v>
@@ -6787,10 +7109,10 @@
         <v>-0.1519397894966546</v>
       </c>
       <c r="N25">
-        <v>32157</v>
+        <v>-9.6937671323897343E-2</v>
       </c>
       <c r="O25">
-        <v>19169</v>
+        <v>-0.26005440367038168</v>
       </c>
       <c r="P25">
         <v>32035</v>
@@ -6799,13 +7121,13 @@
         <v>11230</v>
       </c>
       <c r="R25">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S25">
         <v>4586</v>
       </c>
       <c r="T25">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U25">
         <v>5846965</v>
@@ -6823,7 +7145,7 @@
         <v>1.5</v>
       </c>
       <c r="Z25">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA25">
         <v>0.6</v>
@@ -6844,10 +7166,10 @@
         <v>61.3</v>
       </c>
       <c r="AG25">
-        <v>0.9184339314845025</v>
+        <v>56.3</v>
       </c>
       <c r="AH25">
-        <v>0.09135399673735725</v>
+        <v>5.6</v>
       </c>
       <c r="AI25">
         <v>0.4</v>
@@ -6883,7 +7205,7 @@
         <v>2.4</v>
       </c>
       <c r="AT25">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU25">
         <v>0.7</v>
@@ -6973,39 +7295,51 @@
         <v>8</v>
       </c>
       <c r="BX25">
-        <v>0.1130434782608696</v>
+        <v>1.3</v>
       </c>
       <c r="BY25">
-        <v>0.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BZ25">
-        <v>0.1652173913043478</v>
+        <v>1.9</v>
       </c>
       <c r="CA25">
-        <v>0.008695652173913044</v>
+        <v>0.1</v>
       </c>
       <c r="CB25">
         <v>3.6</v>
       </c>
       <c r="CC25">
-        <v>0.2347826086956522</v>
+        <v>2.7</v>
       </c>
       <c r="CD25">
-        <v>0.0782608695652174</v>
+        <v>0.9</v>
       </c>
       <c r="CE25">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF25">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG25">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH25">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI25">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ25">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="26" spans="1:84">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>1213</v>
@@ -7038,13 +7372,13 @@
         <v>448853</v>
       </c>
       <c r="M26">
-        <v>2.578186415105854</v>
+        <v>2.5781864151058538</v>
       </c>
       <c r="N26">
-        <v>50576</v>
+        <v>2.5517280140286371</v>
       </c>
       <c r="O26">
-        <v>30411</v>
+        <v>2.5924807713688458</v>
       </c>
       <c r="P26">
         <v>48263</v>
@@ -7059,7 +7393,7 @@
         <v>8662</v>
       </c>
       <c r="T26">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U26">
         <v>8173941</v>
@@ -7086,7 +7420,7 @@
         <v>1.5</v>
       </c>
       <c r="AC26">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD26">
         <v>13.3</v>
@@ -7098,10 +7432,10 @@
         <v>63.2</v>
       </c>
       <c r="AG26">
-        <v>0.916139240506329</v>
+        <v>57.9</v>
       </c>
       <c r="AH26">
-        <v>0.09018987341772151</v>
+        <v>5.7</v>
       </c>
       <c r="AI26">
         <v>0.6</v>
@@ -7134,7 +7468,7 @@
         <v>3.6</v>
       </c>
       <c r="AS26">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT26">
         <v>2.1</v>
@@ -7143,7 +7477,7 @@
         <v>0.9</v>
       </c>
       <c r="AV26">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW26">
         <v>0.4</v>
@@ -7161,7 +7495,7 @@
         <v>0.5</v>
       </c>
       <c r="BB26">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC26">
         <v>0.1</v>
@@ -7227,13 +7561,13 @@
         <v>7.3</v>
       </c>
       <c r="BX26">
-        <v>0.1619047619047619</v>
+        <v>1.7</v>
       </c>
       <c r="BY26">
-        <v>0.3904761904761904</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BZ26">
-        <v>0.1333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="CA26">
         <v>0</v>
@@ -7242,24 +7576,36 @@
         <v>3.2</v>
       </c>
       <c r="CC26">
-        <v>0.2666666666666667</v>
+        <v>2.8</v>
       </c>
       <c r="CD26">
-        <v>0.04761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="CE26">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF26">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG26">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH26">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI26">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ26">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="27" spans="1:84">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>1213</v>
@@ -7292,13 +7638,13 @@
         <v>749692</v>
       </c>
       <c r="M27">
-        <v>0.2876763476795762</v>
+        <v>0.28767634767957623</v>
       </c>
       <c r="N27">
-        <v>35382</v>
+        <v>0.36681968983913671</v>
       </c>
       <c r="O27">
-        <v>20937</v>
+        <v>0.1885563586022882</v>
       </c>
       <c r="P27">
         <v>34646</v>
@@ -7307,13 +7653,13 @@
         <v>11904</v>
       </c>
       <c r="R27">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S27">
         <v>6092</v>
       </c>
       <c r="T27">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U27">
         <v>8634750</v>
@@ -7331,7 +7677,7 @@
         <v>1.8</v>
       </c>
       <c r="Z27">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA27">
         <v>0.3</v>
@@ -7352,10 +7698,10 @@
         <v>63.8</v>
       </c>
       <c r="AG27">
-        <v>0.9216300940438872</v>
+        <v>58.8</v>
       </c>
       <c r="AH27">
-        <v>0.0877742946708464</v>
+        <v>5.6</v>
       </c>
       <c r="AI27">
         <v>0.5</v>
@@ -7379,7 +7725,7 @@
         <v>2.6</v>
       </c>
       <c r="AP27">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ27">
         <v>6.4</v>
@@ -7391,7 +7737,7 @@
         <v>2.4</v>
       </c>
       <c r="AT27">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AU27">
         <v>0.9</v>
@@ -7478,16 +7824,16 @@
         <v>12.9</v>
       </c>
       <c r="BW27">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="BX27">
-        <v>0.124031007751938</v>
+        <v>1.6</v>
       </c>
       <c r="BY27">
-        <v>0.3798449612403101</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BZ27">
-        <v>0.1705426356589147</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA27">
         <v>0</v>
@@ -7496,30 +7842,42 @@
         <v>4.2</v>
       </c>
       <c r="CC27">
-        <v>0.2635658914728682</v>
+        <v>3.4</v>
       </c>
       <c r="CD27">
-        <v>0.05426356589147286</v>
+        <v>0.7</v>
       </c>
       <c r="CE27">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF27">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG27">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH27">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI27">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ27">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="28" spans="1:84">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>1213</v>
       </c>
       <c r="D28">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="E28">
         <v>942013</v>
@@ -7546,13 +7904,13 @@
         <v>520464</v>
       </c>
       <c r="M28">
-        <v>-0.4721605835253457</v>
+        <v>-0.47216058352534568</v>
       </c>
       <c r="N28">
-        <v>30040</v>
+        <v>-0.40136382127184872</v>
       </c>
       <c r="O28">
-        <v>17905</v>
+        <v>-0.58078065000106882</v>
       </c>
       <c r="P28">
         <v>30163</v>
@@ -7567,7 +7925,7 @@
         <v>3932</v>
       </c>
       <c r="T28">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U28">
         <v>5288935</v>
@@ -7606,10 +7964,10 @@
         <v>61</v>
       </c>
       <c r="AG28">
-        <v>0.919672131147541</v>
+        <v>56.1</v>
       </c>
       <c r="AH28">
-        <v>0.09016393442622951</v>
+        <v>5.5</v>
       </c>
       <c r="AI28">
         <v>0.4</v>
@@ -7630,10 +7988,10 @@
         <v>0.6</v>
       </c>
       <c r="AO28">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP28">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ28">
         <v>6.2</v>
@@ -7645,13 +8003,13 @@
         <v>2.6</v>
       </c>
       <c r="AT28">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AU28">
         <v>0.7</v>
       </c>
       <c r="AV28">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW28">
         <v>0.5</v>
@@ -7735,39 +8093,51 @@
         <v>7.8</v>
       </c>
       <c r="BX28">
-        <v>0.1339285714285714</v>
+        <v>1.5</v>
       </c>
       <c r="BY28">
-        <v>0.3928571428571429</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BZ28">
-        <v>0.1696428571428572</v>
+        <v>1.9</v>
       </c>
       <c r="CA28">
-        <v>0.00892857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="CB28">
         <v>3.4</v>
       </c>
       <c r="CC28">
-        <v>0.1875</v>
+        <v>2.1</v>
       </c>
       <c r="CD28">
-        <v>0.1160714285714286</v>
+        <v>1.3</v>
       </c>
       <c r="CE28">
-        <v>26578.44444444445</v>
+        <v>32831.111111111109</v>
       </c>
       <c r="CF28">
-        <v>5636.735757510724</v>
+        <v>6954.067514771481</v>
+      </c>
+      <c r="CG28">
+        <v>3941.0556961301631</v>
+      </c>
+      <c r="CH28">
+        <v>20193.888888888891</v>
+      </c>
+      <c r="CI28">
+        <v>26578.444444444449</v>
+      </c>
+      <c r="CJ28">
+        <v>5636.7357575107244</v>
       </c>
     </row>
-    <row r="29" spans="1:84">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>1112</v>
@@ -7800,13 +8170,13 @@
         <v>215726</v>
       </c>
       <c r="M29">
-        <v>-0.5500824281544995</v>
+        <v>-0.55008242815449948</v>
       </c>
       <c r="N29">
-        <v>28698</v>
+        <v>-0.58018666991459733</v>
       </c>
       <c r="O29">
-        <v>18518</v>
+        <v>-0.37761841956692271</v>
       </c>
       <c r="P29">
         <v>28460</v>
@@ -7860,10 +8230,10 @@
         <v>48.6</v>
       </c>
       <c r="AG29">
-        <v>0.9176954732510288</v>
+        <v>44.6</v>
       </c>
       <c r="AH29">
-        <v>0.09876543209876543</v>
+        <v>4.8</v>
       </c>
       <c r="AI29">
         <v>0.4</v>
@@ -7896,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AT29">
         <v>1.4</v>
@@ -7917,7 +8287,7 @@
         <v>0.3</v>
       </c>
       <c r="AZ29">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BA29">
         <v>0.3</v>
@@ -7959,7 +8329,7 @@
         <v>0.5</v>
       </c>
       <c r="BN29">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO29">
         <v>4</v>
@@ -7989,45 +8359,57 @@
         <v>7</v>
       </c>
       <c r="BX29">
-        <v>0.1416666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="BY29">
-        <v>0.2333333333333333</v>
+        <v>2.8</v>
       </c>
       <c r="BZ29">
-        <v>0.2083333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="CA29">
         <v>0</v>
       </c>
       <c r="CB29">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="CC29">
-        <v>0.3666666666666667</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CD29">
-        <v>0.05833333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="CE29">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF29">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG29">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH29">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI29">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ29">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="30" spans="1:84">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>1112</v>
       </c>
       <c r="D30">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E30">
         <v>1330835</v>
@@ -8054,13 +8436,13 @@
         <v>556558</v>
       </c>
       <c r="M30">
-        <v>-0.3633566522384429</v>
+        <v>-0.36335665223844288</v>
       </c>
       <c r="N30">
-        <v>29680</v>
+        <v>-0.43783388157709391</v>
       </c>
       <c r="O30">
-        <v>19378</v>
+        <v>-0.15337670041332591</v>
       </c>
       <c r="P30">
         <v>29569</v>
@@ -8075,7 +8457,7 @@
         <v>7533</v>
       </c>
       <c r="T30">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U30">
         <v>7052177</v>
@@ -8114,10 +8496,10 @@
         <v>53</v>
       </c>
       <c r="AG30">
-        <v>0.9150943396226415</v>
+        <v>48.5</v>
       </c>
       <c r="AH30">
-        <v>0.09811320754716982</v>
+        <v>5.2</v>
       </c>
       <c r="AI30">
         <v>0.4</v>
@@ -8138,16 +8520,16 @@
         <v>0.6</v>
       </c>
       <c r="AO30">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP30">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ30">
         <v>6</v>
       </c>
       <c r="AR30">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AS30">
         <v>2.5</v>
@@ -8228,7 +8610,7 @@
         <v>0.1</v>
       </c>
       <c r="BS30">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT30">
         <v>0.2</v>
@@ -8243,39 +8625,51 @@
         <v>7.5</v>
       </c>
       <c r="BX30">
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="BY30">
-        <v>0.296</v>
+        <v>3.7</v>
       </c>
       <c r="BZ30">
-        <v>0.176</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA30">
-        <v>0.008</v>
+        <v>0.1</v>
       </c>
       <c r="CB30">
         <v>5</v>
       </c>
       <c r="CC30">
-        <v>0.344</v>
+        <v>4.3</v>
       </c>
       <c r="CD30">
-        <v>0.05599999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CE30">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF30">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG30">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH30">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI30">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ30">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="31" spans="1:84">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>1112</v>
@@ -8308,13 +8702,13 @@
         <v>420774</v>
       </c>
       <c r="M31">
-        <v>-0.5000857952556705</v>
+        <v>-0.50008579525567054</v>
       </c>
       <c r="N31">
-        <v>29081</v>
+        <v>-0.52466618322084602</v>
       </c>
       <c r="O31">
-        <v>18255</v>
+        <v>-0.44619466623831339</v>
       </c>
       <c r="P31">
         <v>28997</v>
@@ -8329,7 +8723,7 @@
         <v>5757</v>
       </c>
       <c r="T31">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U31">
         <v>5283733</v>
@@ -8368,10 +8762,10 @@
         <v>49.8</v>
       </c>
       <c r="AG31">
-        <v>0.9176706827309238</v>
+        <v>45.7</v>
       </c>
       <c r="AH31">
-        <v>0.0963855421686747</v>
+        <v>4.8</v>
       </c>
       <c r="AI31">
         <v>0.4</v>
@@ -8401,7 +8795,7 @@
         <v>5.5</v>
       </c>
       <c r="AR31">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AS31">
         <v>2.4</v>
@@ -8443,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="BF31">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG31">
         <v>0.8</v>
@@ -8467,10 +8861,10 @@
         <v>0.5</v>
       </c>
       <c r="BN31">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BO31">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP31">
         <v>0.7</v>
@@ -8497,13 +8891,13 @@
         <v>7.5</v>
       </c>
       <c r="BX31">
-        <v>0.1300813008130081</v>
+        <v>1.6</v>
       </c>
       <c r="BY31">
-        <v>0.2682926829268292</v>
+        <v>3.3</v>
       </c>
       <c r="BZ31">
-        <v>0.2113821138211382</v>
+        <v>2.6</v>
       </c>
       <c r="CA31">
         <v>0</v>
@@ -8512,24 +8906,36 @@
         <v>4.8</v>
       </c>
       <c r="CC31">
-        <v>0.3333333333333333</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CD31">
-        <v>0.06504065040650406</v>
+        <v>0.8</v>
       </c>
       <c r="CE31">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF31">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG31">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH31">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI31">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ31">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="32" spans="1:84">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>1112</v>
@@ -8562,13 +8968,13 @@
         <v>367581</v>
       </c>
       <c r="M32">
-        <v>-0.3922077558108854</v>
+        <v>-0.39220775581088541</v>
       </c>
       <c r="N32">
-        <v>29958</v>
+        <v>-0.39753441603959289</v>
       </c>
       <c r="O32">
-        <v>18065</v>
+        <v>-0.49573644140015449</v>
       </c>
       <c r="P32">
         <v>29415</v>
@@ -8583,7 +8989,7 @@
         <v>3929</v>
       </c>
       <c r="T32">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U32">
         <v>4533222</v>
@@ -8601,7 +9007,7 @@
         <v>3.7</v>
       </c>
       <c r="Z32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA32">
         <v>0.3</v>
@@ -8622,10 +9028,10 @@
         <v>55.4</v>
       </c>
       <c r="AG32">
-        <v>0.9205776173285198</v>
+        <v>51</v>
       </c>
       <c r="AH32">
-        <v>0.09566787003610108</v>
+        <v>5.3</v>
       </c>
       <c r="AI32">
         <v>0.4</v>
@@ -8646,7 +9052,7 @@
         <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP32">
         <v>1</v>
@@ -8655,7 +9061,7 @@
         <v>5.6</v>
       </c>
       <c r="AR32">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AS32">
         <v>2.7</v>
@@ -8691,7 +9097,7 @@
         <v>0.1</v>
       </c>
       <c r="BD32">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BE32">
         <v>0.1</v>
@@ -8724,7 +9130,7 @@
         <v>2.6</v>
       </c>
       <c r="BO32">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BP32">
         <v>0.7</v>
@@ -8736,7 +9142,7 @@
         <v>0.1</v>
       </c>
       <c r="BS32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT32">
         <v>0.2</v>
@@ -8751,39 +9157,51 @@
         <v>7.8</v>
       </c>
       <c r="BX32">
-        <v>0.1333333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="BY32">
-        <v>0.325</v>
+        <v>3.9</v>
       </c>
       <c r="BZ32">
-        <v>0.1916666666666667</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CA32">
-        <v>0.008333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="CB32">
         <v>4.2</v>
       </c>
       <c r="CC32">
-        <v>0.2916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="CD32">
-        <v>0.05833333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="CE32">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF32">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG32">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH32">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI32">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ32">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="33" spans="1:84">
+    <row r="33" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>1112</v>
@@ -8816,13 +9234,13 @@
         <v>452945</v>
       </c>
       <c r="M33">
-        <v>-0.3013536594678521</v>
+        <v>-0.30135365946785209</v>
       </c>
       <c r="N33">
-        <v>30615</v>
+        <v>-0.30229431223334058</v>
       </c>
       <c r="O33">
-        <v>18584</v>
+        <v>-0.36040917135280948</v>
       </c>
       <c r="P33">
         <v>30162</v>
@@ -8843,7 +9261,7 @@
         <v>5601847</v>
       </c>
       <c r="V33">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W33">
         <v>0.1</v>
@@ -8855,7 +9273,7 @@
         <v>3.9</v>
       </c>
       <c r="Z33">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA33">
         <v>0.9</v>
@@ -8876,10 +9294,10 @@
         <v>53.9</v>
       </c>
       <c r="AG33">
-        <v>0.9146567717996289</v>
+        <v>49.3</v>
       </c>
       <c r="AH33">
-        <v>0.09833024118738404</v>
+        <v>5.3</v>
       </c>
       <c r="AI33">
         <v>0.4</v>
@@ -8900,7 +9318,7 @@
         <v>0.7</v>
       </c>
       <c r="AO33">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP33">
         <v>1</v>
@@ -8909,7 +9327,7 @@
         <v>5.7</v>
       </c>
       <c r="AR33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS33">
         <v>2.4</v>
@@ -8975,10 +9393,10 @@
         <v>0.5</v>
       </c>
       <c r="BN33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO33">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP33">
         <v>0.7</v>
@@ -9005,45 +9423,57 @@
         <v>7.3</v>
       </c>
       <c r="BX33">
-        <v>0.1428571428571428</v>
+        <v>1.7</v>
       </c>
       <c r="BY33">
-        <v>0.2773109243697479</v>
+        <v>3.3</v>
       </c>
       <c r="BZ33">
-        <v>0.1848739495798319</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA33">
-        <v>0.008403361344537815</v>
+        <v>0.1</v>
       </c>
       <c r="CB33">
         <v>4.7</v>
       </c>
       <c r="CC33">
-        <v>0.319327731092437</v>
+        <v>3.8</v>
       </c>
       <c r="CD33">
-        <v>0.07563025210084033</v>
+        <v>0.9</v>
       </c>
       <c r="CE33">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF33">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG33">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH33">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI33">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ33">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="34" spans="1:84">
+    <row r="34" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C34">
         <v>1112</v>
       </c>
       <c r="D34">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E34">
         <v>1120911</v>
@@ -9070,13 +9500,13 @@
         <v>506684</v>
       </c>
       <c r="M34">
-        <v>-0.2226851223976518</v>
+        <v>-0.22268512239765181</v>
       </c>
       <c r="N34">
-        <v>31329</v>
+        <v>-0.198791368370838</v>
       </c>
       <c r="O34">
-        <v>18809</v>
+        <v>-0.30174127971378711</v>
       </c>
       <c r="P34">
         <v>31310</v>
@@ -9091,7 +9521,7 @@
         <v>4586</v>
       </c>
       <c r="T34">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U34">
         <v>5846965</v>
@@ -9109,7 +9539,7 @@
         <v>1.5</v>
       </c>
       <c r="Z34">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA34">
         <v>0.6</v>
@@ -9130,10 +9560,10 @@
         <v>60.1</v>
       </c>
       <c r="AG34">
-        <v>0.91846921797005</v>
+        <v>55.2</v>
       </c>
       <c r="AH34">
-        <v>0.09151414309484193</v>
+        <v>5.5</v>
       </c>
       <c r="AI34">
         <v>0.5</v>
@@ -9169,13 +9599,13 @@
         <v>2.5</v>
       </c>
       <c r="AT34">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU34">
         <v>0.7</v>
       </c>
       <c r="AV34">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW34">
         <v>0.5</v>
@@ -9199,7 +9629,7 @@
         <v>0.2</v>
       </c>
       <c r="BD34">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BE34">
         <v>0</v>
@@ -9232,7 +9662,7 @@
         <v>2.8</v>
       </c>
       <c r="BO34">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BP34">
         <v>0.7</v>
@@ -9259,39 +9689,51 @@
         <v>7.8</v>
       </c>
       <c r="BX34">
-        <v>0.1206896551724138</v>
+        <v>1.4</v>
       </c>
       <c r="BY34">
-        <v>0.3879310344827586</v>
+        <v>4.5</v>
       </c>
       <c r="BZ34">
-        <v>0.1637931034482759</v>
+        <v>1.9</v>
       </c>
       <c r="CA34">
-        <v>0.008620689655172414</v>
+        <v>0.1</v>
       </c>
       <c r="CB34">
         <v>3.9</v>
       </c>
       <c r="CC34">
-        <v>0.2586206896551724</v>
+        <v>3</v>
       </c>
       <c r="CD34">
-        <v>0.07758620689655173</v>
+        <v>0.9</v>
       </c>
       <c r="CE34">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF34">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG34">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH34">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI34">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ34">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="35" spans="1:84">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>1112</v>
@@ -9324,13 +9766,13 @@
         <v>441276</v>
       </c>
       <c r="M35">
-        <v>2.595942257049232</v>
+        <v>2.5959422570492321</v>
       </c>
       <c r="N35">
-        <v>50457</v>
+        <v>2.5740437999792301</v>
       </c>
       <c r="O35">
-        <v>29970</v>
+        <v>2.6084468917667878</v>
       </c>
       <c r="P35">
         <v>47962</v>
@@ -9345,7 +9787,7 @@
         <v>8662</v>
       </c>
       <c r="T35">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U35">
         <v>8173941</v>
@@ -9372,7 +9814,7 @@
         <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD35">
         <v>13.3</v>
@@ -9384,10 +9826,10 @@
         <v>60.3</v>
       </c>
       <c r="AG35">
-        <v>0.9170812603648425</v>
+        <v>55.3</v>
       </c>
       <c r="AH35">
-        <v>0.09286898839137644</v>
+        <v>5.6</v>
       </c>
       <c r="AI35">
         <v>0.6</v>
@@ -9486,7 +9928,7 @@
         <v>2.7</v>
       </c>
       <c r="BO35">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BP35">
         <v>0.6</v>
@@ -9513,13 +9955,13 @@
         <v>6.9</v>
       </c>
       <c r="BX35">
-        <v>0.1320754716981132</v>
+        <v>1.4</v>
       </c>
       <c r="BY35">
-        <v>0.3867924528301886</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BZ35">
-        <v>0.1320754716981132</v>
+        <v>1.4</v>
       </c>
       <c r="CA35">
         <v>0</v>
@@ -9528,24 +9970,36 @@
         <v>3.7</v>
       </c>
       <c r="CC35">
-        <v>0.3113207547169811</v>
+        <v>3.3</v>
       </c>
       <c r="CD35">
-        <v>0.03773584905660378</v>
+        <v>0.4</v>
       </c>
       <c r="CE35">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF35">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG35">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH35">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI35">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ35">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="36" spans="1:84">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>1112</v>
@@ -9581,10 +10035,10 @@
         <v>0.2181454042371842</v>
       </c>
       <c r="N36">
-        <v>34791</v>
+        <v>0.30306744346667419</v>
       </c>
       <c r="O36">
-        <v>20420</v>
+        <v>0.1183208244216135</v>
       </c>
       <c r="P36">
         <v>34214</v>
@@ -9599,7 +10053,7 @@
         <v>6092</v>
       </c>
       <c r="T36">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U36">
         <v>8634750</v>
@@ -9617,7 +10071,7 @@
         <v>1.8</v>
       </c>
       <c r="Z36">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA36">
         <v>0.3</v>
@@ -9638,10 +10092,10 @@
         <v>63.2</v>
       </c>
       <c r="AG36">
-        <v>0.9193037974683544</v>
+        <v>58.1</v>
       </c>
       <c r="AH36">
-        <v>0.08702531645569619</v>
+        <v>5.5</v>
       </c>
       <c r="AI36">
         <v>0.5</v>
@@ -9665,7 +10119,7 @@
         <v>2.5</v>
       </c>
       <c r="AP36">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ36">
         <v>6.3</v>
@@ -9677,7 +10131,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AU36">
         <v>0.8</v>
@@ -9740,7 +10194,7 @@
         <v>2.9</v>
       </c>
       <c r="BO36">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BP36">
         <v>0.8</v>
@@ -9767,39 +10221,51 @@
         <v>8.4</v>
       </c>
       <c r="BX36">
-        <v>0.1111111111111111</v>
+        <v>1.4</v>
       </c>
       <c r="BY36">
-        <v>0.4047619047619048</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BZ36">
-        <v>0.1587301587301587</v>
+        <v>2</v>
       </c>
       <c r="CA36">
-        <v>0.007936507936507938</v>
+        <v>0.1</v>
       </c>
       <c r="CB36">
         <v>4.2</v>
       </c>
       <c r="CC36">
-        <v>0.2698412698412698</v>
+        <v>3.4</v>
       </c>
       <c r="CD36">
-        <v>0.0634920634920635</v>
+        <v>0.8</v>
       </c>
       <c r="CE36">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF36">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG36">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH36">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI36">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ36">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="37" spans="1:84">
+    <row r="37" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>1112</v>
@@ -9835,10 +10301,10 @@
         <v>-0.4843162479614162</v>
       </c>
       <c r="N37">
-        <v>29694</v>
+        <v>-0.43580441208959381</v>
       </c>
       <c r="O37">
-        <v>17697</v>
+        <v>-0.59169103750308905</v>
       </c>
       <c r="P37">
         <v>30016</v>
@@ -9853,7 +10319,7 @@
         <v>3932</v>
       </c>
       <c r="T37">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U37">
         <v>5288935</v>
@@ -9892,10 +10358,10 @@
         <v>59.8</v>
       </c>
       <c r="AG37">
-        <v>0.919732441471572</v>
+        <v>55</v>
       </c>
       <c r="AH37">
-        <v>0.0919732441471572</v>
+        <v>5.5</v>
       </c>
       <c r="AI37">
         <v>0.4</v>
@@ -9916,10 +10382,10 @@
         <v>0.6</v>
       </c>
       <c r="AO37">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ37">
         <v>6.1</v>
@@ -9931,13 +10397,13 @@
         <v>2.7</v>
       </c>
       <c r="AT37">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU37">
         <v>0.7</v>
       </c>
       <c r="AV37">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW37">
         <v>0.5</v>
@@ -9961,7 +10427,7 @@
         <v>0.2</v>
       </c>
       <c r="BD37">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BE37">
         <v>0</v>
@@ -10021,13 +10487,13 @@
         <v>7.7</v>
       </c>
       <c r="BX37">
-        <v>0.1238938053097345</v>
+        <v>1.4</v>
       </c>
       <c r="BY37">
-        <v>0.3893805309734513</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BZ37">
-        <v>0.168141592920354</v>
+        <v>1.9</v>
       </c>
       <c r="CA37">
         <v>0</v>
@@ -10036,30 +10502,42 @@
         <v>3.7</v>
       </c>
       <c r="CC37">
-        <v>0.2123893805309734</v>
+        <v>2.4</v>
       </c>
       <c r="CD37">
-        <v>0.1150442477876106</v>
+        <v>1.3</v>
       </c>
       <c r="CE37">
-        <v>26416.66666666667</v>
+        <v>32700.333333333328</v>
       </c>
       <c r="CF37">
-        <v>5580.375793797403</v>
+        <v>6898.3545139402631</v>
+      </c>
+      <c r="CG37">
+        <v>3835.147194046142</v>
+      </c>
+      <c r="CH37">
+        <v>19966.222222222219</v>
+      </c>
+      <c r="CI37">
+        <v>26416.666666666672</v>
+      </c>
+      <c r="CJ37">
+        <v>5580.3757937974033</v>
       </c>
     </row>
-    <row r="38" spans="1:84">
+    <row r="38" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C38">
         <v>1011</v>
       </c>
       <c r="D38">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E38">
         <v>462210</v>
@@ -10086,13 +10564,13 @@
         <v>211786</v>
       </c>
       <c r="M38">
-        <v>-0.5182311289626083</v>
+        <v>-0.51823112896260826</v>
       </c>
       <c r="N38">
-        <v>27993</v>
+        <v>-0.57529112820386419</v>
       </c>
       <c r="O38">
-        <v>18311</v>
+        <v>-0.33327099133856292</v>
       </c>
       <c r="P38">
         <v>27977</v>
@@ -10146,10 +10624,10 @@
         <v>47.2</v>
       </c>
       <c r="AG38">
-        <v>0.9194915254237287</v>
+        <v>43.4</v>
       </c>
       <c r="AH38">
-        <v>0.09533898305084745</v>
+        <v>4.5</v>
       </c>
       <c r="AI38">
         <v>0.4</v>
@@ -10182,7 +10660,7 @@
         <v>2.1</v>
       </c>
       <c r="AS38">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT38">
         <v>1.4</v>
@@ -10203,7 +10681,7 @@
         <v>0.2</v>
       </c>
       <c r="AZ38">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BA38">
         <v>0.2</v>
@@ -10221,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="BF38">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG38">
         <v>0.8</v>
@@ -10245,7 +10723,7 @@
         <v>0.5</v>
       </c>
       <c r="BN38">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO38">
         <v>3.8</v>
@@ -10275,39 +10753,51 @@
         <v>6.8</v>
       </c>
       <c r="BX38">
-        <v>0.1403508771929824</v>
+        <v>1.6</v>
       </c>
       <c r="BY38">
-        <v>0.2456140350877193</v>
+        <v>2.8</v>
       </c>
       <c r="BZ38">
-        <v>0.2017543859649123</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CA38">
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="CC38">
-        <v>0.3421052631578947</v>
+        <v>3.9</v>
       </c>
       <c r="CD38">
-        <v>0.05263157894736842</v>
+        <v>0.6</v>
       </c>
       <c r="CE38">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF38">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG38">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH38">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI38">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ38">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="39" spans="1:84">
+    <row r="39" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>1011</v>
@@ -10340,13 +10830,13 @@
         <v>547301</v>
       </c>
       <c r="M39">
-        <v>-0.3678413278055322</v>
+        <v>-0.36784132780553219</v>
       </c>
       <c r="N39">
-        <v>29011</v>
+        <v>-0.43821588331143202</v>
       </c>
       <c r="O39">
-        <v>18999</v>
+        <v>-0.1657426605731481</v>
       </c>
       <c r="P39">
         <v>28989</v>
@@ -10361,7 +10851,7 @@
         <v>7533</v>
       </c>
       <c r="T39">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U39">
         <v>7052177</v>
@@ -10400,10 +10890,10 @@
         <v>51.3</v>
       </c>
       <c r="AG39">
-        <v>0.9161793372319689</v>
+        <v>47</v>
       </c>
       <c r="AH39">
-        <v>0.09551656920077974</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI39">
         <v>0.4</v>
@@ -10499,7 +10989,7 @@
         <v>0.5</v>
       </c>
       <c r="BN39">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BO39">
         <v>4.3</v>
@@ -10514,7 +11004,7 @@
         <v>0.1</v>
       </c>
       <c r="BS39">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT39">
         <v>0.2</v>
@@ -10529,39 +11019,51 @@
         <v>7.6</v>
       </c>
       <c r="BX39">
-        <v>0.1307692307692308</v>
+        <v>1.7</v>
       </c>
       <c r="BY39">
-        <v>0.2923076923076923</v>
+        <v>3.8</v>
       </c>
       <c r="BZ39">
-        <v>0.1615384615384615</v>
+        <v>2.1</v>
       </c>
       <c r="CA39">
-        <v>0.007692307692307693</v>
+        <v>0.1</v>
       </c>
       <c r="CB39">
         <v>5.4</v>
       </c>
       <c r="CC39">
-        <v>0.3538461538461538</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="CD39">
-        <v>0.06153846153846154</v>
+        <v>0.8</v>
       </c>
       <c r="CE39">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF39">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG39">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH39">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI39">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ39">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="40" spans="1:84">
+    <row r="40" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>1011</v>
@@ -10594,13 +11096,13 @@
         <v>413689</v>
       </c>
       <c r="M40">
-        <v>-0.4847926886610902</v>
+        <v>-0.48479268866109021</v>
       </c>
       <c r="N40">
-        <v>28574</v>
+        <v>-0.49705859649217149</v>
       </c>
       <c r="O40">
-        <v>17773</v>
+        <v>-0.46427424998942513</v>
       </c>
       <c r="P40">
         <v>28321</v>
@@ -10615,7 +11117,7 @@
         <v>5757</v>
       </c>
       <c r="T40">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U40">
         <v>5283733</v>
@@ -10654,10 +11156,10 @@
         <v>49</v>
       </c>
       <c r="AG40">
-        <v>0.9183673469387755</v>
+        <v>45</v>
       </c>
       <c r="AH40">
-        <v>0.09387755102040815</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AI40">
         <v>0.4</v>
@@ -10729,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="BF40">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG40">
         <v>0.8</v>
@@ -10783,39 +11285,51 @@
         <v>7.5</v>
       </c>
       <c r="BX40">
-        <v>0.128</v>
+        <v>1.6</v>
       </c>
       <c r="BY40">
-        <v>0.256</v>
+        <v>3.2</v>
       </c>
       <c r="BZ40">
-        <v>0.208</v>
+        <v>2.6</v>
       </c>
       <c r="CA40">
         <v>0</v>
       </c>
       <c r="CB40">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="CC40">
-        <v>0.344</v>
+        <v>4.3</v>
       </c>
       <c r="CD40">
-        <v>0.064</v>
+        <v>0.8</v>
       </c>
       <c r="CE40">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF40">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG40">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH40">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI40">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ40">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="41" spans="1:84">
+    <row r="41" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>1011</v>
@@ -10848,13 +11362,13 @@
         <v>360778</v>
       </c>
       <c r="M41">
-        <v>-0.3545324958447291</v>
+        <v>-0.35453249584472912</v>
       </c>
       <c r="N41">
-        <v>29648</v>
+        <v>-0.3524428666154798</v>
       </c>
       <c r="O41">
-        <v>17663</v>
+        <v>-0.49105930287343041</v>
       </c>
       <c r="P41">
         <v>29039</v>
@@ -10869,7 +11383,7 @@
         <v>3929</v>
       </c>
       <c r="T41">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U41">
         <v>4533222</v>
@@ -10887,7 +11401,7 @@
         <v>3.7</v>
       </c>
       <c r="Z41">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA41">
         <v>0.3</v>
@@ -10908,10 +11422,10 @@
         <v>53.1</v>
       </c>
       <c r="AG41">
-        <v>0.9209039548022598</v>
+        <v>48.9</v>
       </c>
       <c r="AH41">
-        <v>0.09604519774011298</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI41">
         <v>0.4</v>
@@ -11022,7 +11536,7 @@
         <v>0.1</v>
       </c>
       <c r="BS41">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT41">
         <v>0.2</v>
@@ -11037,39 +11551,51 @@
         <v>7.5</v>
       </c>
       <c r="BX41">
-        <v>0.1217391304347826</v>
+        <v>1.4</v>
       </c>
       <c r="BY41">
-        <v>0.3304347826086956</v>
+        <v>3.8</v>
       </c>
       <c r="BZ41">
-        <v>0.191304347826087</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA41">
-        <v>0.008695652173913044</v>
+        <v>0.1</v>
       </c>
       <c r="CB41">
         <v>4</v>
       </c>
       <c r="CC41">
-        <v>0.2869565217391304</v>
+        <v>3.3</v>
       </c>
       <c r="CD41">
-        <v>0.0608695652173913</v>
+        <v>0.7</v>
       </c>
       <c r="CE41">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF41">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG41">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH41">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI41">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ41">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="42" spans="1:84">
+    <row r="42" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>1011</v>
@@ -11105,10 +11631,10 @@
         <v>-0.4149213208668735</v>
       </c>
       <c r="N42">
-        <v>29057</v>
+        <v>-0.43202191350293312</v>
       </c>
       <c r="O42">
-        <v>18026</v>
+        <v>-0.40266862835621292</v>
       </c>
       <c r="P42">
         <v>28939</v>
@@ -11129,7 +11655,7 @@
         <v>5601847</v>
       </c>
       <c r="V42">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W42">
         <v>0.1</v>
@@ -11141,7 +11667,7 @@
         <v>3.9</v>
       </c>
       <c r="Z42">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA42">
         <v>0.9</v>
@@ -11162,10 +11688,10 @@
         <v>52.2</v>
       </c>
       <c r="AG42">
-        <v>0.9157088122605362</v>
+        <v>47.8</v>
       </c>
       <c r="AH42">
-        <v>0.09770114942528735</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI42">
         <v>0.4</v>
@@ -11261,10 +11787,10 @@
         <v>0.5</v>
       </c>
       <c r="BN42">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BO42">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BP42">
         <v>0.7</v>
@@ -11276,7 +11802,7 @@
         <v>0.1</v>
       </c>
       <c r="BS42">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT42">
         <v>0.2</v>
@@ -11291,39 +11817,51 @@
         <v>6.8</v>
       </c>
       <c r="BX42">
-        <v>0.134453781512605</v>
+        <v>1.6</v>
       </c>
       <c r="BY42">
-        <v>0.2605042016806723</v>
+        <v>3.1</v>
       </c>
       <c r="BZ42">
-        <v>0.1680672268907563</v>
+        <v>2</v>
       </c>
       <c r="CA42">
-        <v>0.008403361344537815</v>
+        <v>0.1</v>
       </c>
       <c r="CB42">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="CC42">
-        <v>0.361344537815126</v>
+        <v>4.3</v>
       </c>
       <c r="CD42">
-        <v>0.07563025210084033</v>
+        <v>0.9</v>
       </c>
       <c r="CE42">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF42">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG42">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH42">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI42">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ42">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="43" spans="1:84">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>1011</v>
@@ -11356,13 +11894,13 @@
         <v>496609</v>
       </c>
       <c r="M43">
-        <v>-0.2467309569622232</v>
+        <v>-0.24673095696222319</v>
       </c>
       <c r="N43">
-        <v>31034</v>
+        <v>-0.1658158632550564</v>
       </c>
       <c r="O43">
-        <v>18088</v>
+        <v>-0.38757159854886453</v>
       </c>
       <c r="P43">
         <v>30899</v>
@@ -11377,7 +11915,7 @@
         <v>4586</v>
       </c>
       <c r="T43">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U43">
         <v>5846965</v>
@@ -11395,7 +11933,7 @@
         <v>1.5</v>
       </c>
       <c r="Z43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA43">
         <v>0.6</v>
@@ -11416,10 +11954,10 @@
         <v>58.7</v>
       </c>
       <c r="AG43">
-        <v>0.9165247018739352</v>
+        <v>53.8</v>
       </c>
       <c r="AH43">
-        <v>0.09028960817717205</v>
+        <v>5.3</v>
       </c>
       <c r="AI43">
         <v>0.4</v>
@@ -11440,7 +11978,7 @@
         <v>0.7</v>
       </c>
       <c r="AO43">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP43">
         <v>1</v>
@@ -11461,7 +11999,7 @@
         <v>0.7</v>
       </c>
       <c r="AV43">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW43">
         <v>0.4</v>
@@ -11545,39 +12083,51 @@
         <v>7.5</v>
       </c>
       <c r="BX43">
-        <v>0.1206896551724138</v>
+        <v>1.4</v>
       </c>
       <c r="BY43">
-        <v>0.3620689655172414</v>
+        <v>4.2</v>
       </c>
       <c r="BZ43">
-        <v>0.1637931034482759</v>
+        <v>1.9</v>
       </c>
       <c r="CA43">
-        <v>0.008620689655172414</v>
+        <v>0.1</v>
       </c>
       <c r="CB43">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CC43">
-        <v>0.2758620689655172</v>
+        <v>3.2</v>
       </c>
       <c r="CD43">
-        <v>0.07758620689655173</v>
+        <v>0.9</v>
       </c>
       <c r="CE43">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF43">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG43">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH43">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI43">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ43">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="44" spans="1:84">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>1011</v>
@@ -11610,13 +12160,13 @@
         <v>434297</v>
       </c>
       <c r="M44">
-        <v>2.578068626718253</v>
+        <v>2.5780686267182529</v>
       </c>
       <c r="N44">
-        <v>51154</v>
+        <v>2.5433726703753319</v>
       </c>
       <c r="O44">
-        <v>30381</v>
+        <v>2.6057798114791071</v>
       </c>
       <c r="P44">
         <v>48367</v>
@@ -11631,7 +12181,7 @@
         <v>8662</v>
       </c>
       <c r="T44">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U44">
         <v>8173941</v>
@@ -11658,7 +12208,7 @@
         <v>1.5</v>
       </c>
       <c r="AC44">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD44">
         <v>13.3</v>
@@ -11670,10 +12220,10 @@
         <v>59</v>
       </c>
       <c r="AG44">
-        <v>0.9152542372881356</v>
+        <v>54</v>
       </c>
       <c r="AH44">
-        <v>0.09152542372881356</v>
+        <v>5.4</v>
       </c>
       <c r="AI44">
         <v>0.6</v>
@@ -11700,13 +12250,13 @@
         <v>0.7</v>
       </c>
       <c r="AQ44">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AR44">
         <v>3.3</v>
       </c>
       <c r="AS44">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -11799,13 +12349,13 @@
         <v>6.5</v>
       </c>
       <c r="BX44">
-        <v>0.1121495327102804</v>
+        <v>1.2</v>
       </c>
       <c r="BY44">
-        <v>0.3738317757009346</v>
+        <v>4</v>
       </c>
       <c r="BZ44">
-        <v>0.1214953271028038</v>
+        <v>1.3</v>
       </c>
       <c r="CA44">
         <v>0</v>
@@ -11814,24 +12364,36 @@
         <v>4.2</v>
       </c>
       <c r="CC44">
-        <v>0.3551401869158878</v>
+        <v>3.8</v>
       </c>
       <c r="CD44">
-        <v>0.03738317757009346</v>
+        <v>0.4</v>
       </c>
       <c r="CE44">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF44">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG44">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH44">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI44">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ44">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="45" spans="1:84">
+    <row r="45" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>1011</v>
@@ -11864,13 +12426,13 @@
         <v>723641</v>
       </c>
       <c r="M45">
-        <v>0.3154008329822013</v>
+        <v>0.31540083298220128</v>
       </c>
       <c r="N45">
-        <v>35360</v>
+        <v>0.41668660177899242</v>
       </c>
       <c r="O45">
-        <v>20352</v>
+        <v>0.1637134899001168</v>
       </c>
       <c r="P45">
         <v>34416</v>
@@ -11885,7 +12447,7 @@
         <v>6092</v>
       </c>
       <c r="T45">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U45">
         <v>8634750</v>
@@ -11903,7 +12465,7 @@
         <v>1.8</v>
       </c>
       <c r="Z45">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA45">
         <v>0.3</v>
@@ -11924,10 +12486,10 @@
         <v>59.7</v>
       </c>
       <c r="AG45">
-        <v>0.9179229480737018</v>
+        <v>54.8</v>
       </c>
       <c r="AH45">
-        <v>0.08710217755443886</v>
+        <v>5.2</v>
       </c>
       <c r="AI45">
         <v>0.4</v>
@@ -11948,10 +12510,10 @@
         <v>0.8</v>
       </c>
       <c r="AO45">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP45">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ45">
         <v>6</v>
@@ -11963,13 +12525,13 @@
         <v>2.6</v>
       </c>
       <c r="AT45">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU45">
         <v>0.7</v>
       </c>
       <c r="AV45">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW45">
         <v>0.5</v>
@@ -11993,7 +12555,7 @@
         <v>0.2</v>
       </c>
       <c r="BD45">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BE45">
         <v>0.1</v>
@@ -12026,7 +12588,7 @@
         <v>2.7</v>
       </c>
       <c r="BO45">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BP45">
         <v>0.8</v>
@@ -12053,39 +12615,51 @@
         <v>8.1</v>
       </c>
       <c r="BX45">
-        <v>0.1147540983606557</v>
+        <v>1.4</v>
       </c>
       <c r="BY45">
-        <v>0.3852459016393443</v>
+        <v>4.7</v>
       </c>
       <c r="BZ45">
-        <v>0.1557377049180328</v>
+        <v>1.9</v>
       </c>
       <c r="CA45">
-        <v>0.00819672131147541</v>
+        <v>0.1</v>
       </c>
       <c r="CB45">
         <v>4.2</v>
       </c>
       <c r="CC45">
-        <v>0.278688524590164</v>
+        <v>3.4</v>
       </c>
       <c r="CD45">
-        <v>0.06557377049180328</v>
+        <v>0.8</v>
       </c>
       <c r="CE45">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF45">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG45">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH45">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI45">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ45">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="46" spans="1:84">
+    <row r="46" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>1011</v>
@@ -12118,13 +12692,13 @@
         <v>505719</v>
       </c>
       <c r="M46">
-        <v>-0.5064195405973954</v>
+        <v>-0.50641954059739536</v>
       </c>
       <c r="N46">
-        <v>28558</v>
+        <v>-0.49921302077338853</v>
       </c>
       <c r="O46">
-        <v>17524</v>
+        <v>-0.52490586969958253</v>
       </c>
       <c r="P46">
         <v>29058</v>
@@ -12139,7 +12713,7 @@
         <v>3932</v>
       </c>
       <c r="T46">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U46">
         <v>5288935</v>
@@ -12178,10 +12752,10 @@
         <v>57.9</v>
       </c>
       <c r="AG46">
-        <v>0.9222797927461139</v>
+        <v>53.4</v>
       </c>
       <c r="AH46">
-        <v>0.09153713298791019</v>
+        <v>5.3</v>
       </c>
       <c r="AI46">
         <v>0.4</v>
@@ -12205,25 +12779,25 @@
         <v>2.1</v>
       </c>
       <c r="AP46">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ46">
         <v>6</v>
       </c>
       <c r="AR46">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS46">
         <v>2.7</v>
       </c>
       <c r="AT46">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AU46">
         <v>0.7</v>
       </c>
       <c r="AV46">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW46">
         <v>0.5</v>
@@ -12247,7 +12821,7 @@
         <v>0.2</v>
       </c>
       <c r="BD46">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BE46">
         <v>0</v>
@@ -12307,39 +12881,51 @@
         <v>8.1</v>
       </c>
       <c r="BX46">
-        <v>0.1120689655172414</v>
+        <v>1.3</v>
       </c>
       <c r="BY46">
-        <v>0.4224137931034483</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BZ46">
-        <v>0.1551724137931035</v>
+        <v>1.8</v>
       </c>
       <c r="CA46">
-        <v>0.008620689655172414</v>
+        <v>0.1</v>
       </c>
       <c r="CB46">
         <v>3.5</v>
       </c>
       <c r="CC46">
-        <v>0.2068965517241379</v>
+        <v>2.4</v>
       </c>
       <c r="CD46">
-        <v>0.09482758620689656</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CE46">
-        <v>26100.11111111111</v>
+        <v>32265.444444444449</v>
       </c>
       <c r="CF46">
-        <v>6011.045915645629</v>
+        <v>7426.5780141327541</v>
+      </c>
+      <c r="CG46">
+        <v>4106.7680723410713</v>
+      </c>
+      <c r="CH46">
+        <v>19679.666666666672</v>
+      </c>
+      <c r="CI46">
+        <v>26100.111111111109</v>
+      </c>
+      <c r="CJ46">
+        <v>6011.0459156456291</v>
       </c>
     </row>
-    <row r="47" spans="1:84">
+    <row r="47" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>910</v>
@@ -12375,10 +12961,10 @@
         <v>-0.4885044142321231</v>
       </c>
       <c r="N47">
-        <v>28028</v>
+        <v>-0.52539448387848131</v>
       </c>
       <c r="O47">
-        <v>18005</v>
+        <v>-0.32333058460572872</v>
       </c>
       <c r="P47">
         <v>27712</v>
@@ -12432,10 +13018,10 @@
         <v>45.7</v>
       </c>
       <c r="AG47">
-        <v>0.9212253829321663</v>
+        <v>42.1</v>
       </c>
       <c r="AH47">
-        <v>0.0962800875273523</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AI47">
         <v>0.4</v>
@@ -12489,7 +13075,7 @@
         <v>0.2</v>
       </c>
       <c r="AZ47">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BA47">
         <v>0.2</v>
@@ -12507,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="BF47">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG47">
         <v>0.8</v>
@@ -12561,39 +13147,51 @@
         <v>7</v>
       </c>
       <c r="BX47">
-        <v>0.1238938053097345</v>
+        <v>1.4</v>
       </c>
       <c r="BY47">
-        <v>0.2654867256637168</v>
+        <v>3</v>
       </c>
       <c r="BZ47">
-        <v>0.2212389380530973</v>
+        <v>2.5</v>
       </c>
       <c r="CA47">
-        <v>0.008849557522123894</v>
+        <v>0.1</v>
       </c>
       <c r="CB47">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CC47">
-        <v>0.3274336283185841</v>
+        <v>3.7</v>
       </c>
       <c r="CD47">
-        <v>0.05309734513274336</v>
+        <v>0.6</v>
       </c>
       <c r="CE47">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF47">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG47">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH47">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI47">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ47">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="48" spans="1:84">
+    <row r="48" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C48">
         <v>910</v>
@@ -12626,13 +13224,13 @@
         <v>538564</v>
       </c>
       <c r="M48">
-        <v>-0.3802645717731198</v>
+        <v>-0.38026457177311979</v>
       </c>
       <c r="N48">
-        <v>28767</v>
+        <v>-0.43632664016844702</v>
       </c>
       <c r="O48">
-        <v>18498</v>
+        <v>-0.19266132475550399</v>
       </c>
       <c r="P48">
         <v>28634</v>
@@ -12647,7 +13245,7 @@
         <v>7533</v>
       </c>
       <c r="T48">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U48">
         <v>7052177</v>
@@ -12686,10 +13284,10 @@
         <v>50.8</v>
       </c>
       <c r="AG48">
-        <v>0.9173228346456693</v>
+        <v>46.6</v>
       </c>
       <c r="AH48">
-        <v>0.09645669291338584</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI48">
         <v>0.4</v>
@@ -12713,7 +13311,7 @@
         <v>1.9</v>
       </c>
       <c r="AP48">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ48">
         <v>5.6</v>
@@ -12785,7 +13383,7 @@
         <v>0.4</v>
       </c>
       <c r="BN48">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BO48">
         <v>4.2</v>
@@ -12800,7 +13398,7 @@
         <v>0.1</v>
       </c>
       <c r="BS48">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT48">
         <v>0.2</v>
@@ -12815,39 +13413,51 @@
         <v>7.5</v>
       </c>
       <c r="BX48">
-        <v>0.124031007751938</v>
+        <v>1.6</v>
       </c>
       <c r="BY48">
-        <v>0.2868217054263566</v>
+        <v>3.7</v>
       </c>
       <c r="BZ48">
-        <v>0.1705426356589147</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CA48">
-        <v>0.007751937984496124</v>
+        <v>0.1</v>
       </c>
       <c r="CB48">
         <v>5.4</v>
       </c>
       <c r="CC48">
-        <v>0.3643410852713178</v>
+        <v>4.7</v>
       </c>
       <c r="CD48">
-        <v>0.05426356589147286</v>
+        <v>0.7</v>
       </c>
       <c r="CE48">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF48">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG48">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH48">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI48">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ48">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="49" spans="1:84">
+    <row r="49" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C49">
         <v>910</v>
@@ -12883,10 +13493,10 @@
         <v>-0.4717679067998784</v>
       </c>
       <c r="N49">
-        <v>28297</v>
+        <v>-0.49297330666873951</v>
       </c>
       <c r="O49">
-        <v>17531</v>
+        <v>-0.44896390949215148</v>
       </c>
       <c r="P49">
         <v>28172</v>
@@ -12901,7 +13511,7 @@
         <v>5757</v>
       </c>
       <c r="T49">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U49">
         <v>5283733</v>
@@ -12940,10 +13550,10 @@
         <v>47.1</v>
       </c>
       <c r="AG49">
-        <v>0.9214437367303608</v>
+        <v>43.4</v>
       </c>
       <c r="AH49">
-        <v>0.09554140127388534</v>
+        <v>4.5</v>
       </c>
       <c r="AI49">
         <v>0.4</v>
@@ -12970,7 +13580,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ49">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AR49">
         <v>1.9</v>
@@ -13015,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG49">
         <v>0.7</v>
@@ -13069,45 +13679,57 @@
         <v>6.7</v>
       </c>
       <c r="BX49">
-        <v>0.1160714285714286</v>
+        <v>1.3</v>
       </c>
       <c r="BY49">
-        <v>0.2678571428571428</v>
+        <v>3</v>
       </c>
       <c r="BZ49">
-        <v>0.2053571428571428</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CA49">
-        <v>0.00892857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="CB49">
         <v>4.5</v>
       </c>
       <c r="CC49">
-        <v>0.3482142857142858</v>
+        <v>3.9</v>
       </c>
       <c r="CD49">
-        <v>0.05357142857142858</v>
+        <v>0.6</v>
       </c>
       <c r="CE49">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF49">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG49">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH49">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI49">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ49">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C50">
         <v>910</v>
       </c>
       <c r="D50">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E50">
         <v>835268</v>
@@ -13134,13 +13756,13 @@
         <v>355135</v>
       </c>
       <c r="M50">
-        <v>-0.385895546236305</v>
+        <v>-0.38589554623630501</v>
       </c>
       <c r="N50">
-        <v>28912</v>
+        <v>-0.41885054092899499</v>
       </c>
       <c r="O50">
-        <v>17373</v>
+        <v>-0.49084168445429238</v>
       </c>
       <c r="P50">
         <v>28558</v>
@@ -13155,7 +13777,7 @@
         <v>3929</v>
       </c>
       <c r="T50">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U50">
         <v>4533222</v>
@@ -13173,7 +13795,7 @@
         <v>3.7</v>
       </c>
       <c r="Z50">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA50">
         <v>0.3</v>
@@ -13194,10 +13816,10 @@
         <v>53.3</v>
       </c>
       <c r="AG50">
-        <v>0.9212007504690433</v>
+        <v>49.1</v>
       </c>
       <c r="AH50">
-        <v>0.09380863039399626</v>
+        <v>5</v>
       </c>
       <c r="AI50">
         <v>0.4</v>
@@ -13227,7 +13849,7 @@
         <v>5.6</v>
       </c>
       <c r="AR50">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS50">
         <v>2.8</v>
@@ -13308,7 +13930,7 @@
         <v>0.1</v>
       </c>
       <c r="BS50">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT50">
         <v>0.2</v>
@@ -13323,39 +13945,51 @@
         <v>7.1</v>
       </c>
       <c r="BX50">
-        <v>0.1181818181818182</v>
+        <v>1.3</v>
       </c>
       <c r="BY50">
-        <v>0.3363636363636364</v>
+        <v>3.7</v>
       </c>
       <c r="BZ50">
-        <v>0.1818181818181818</v>
+        <v>2</v>
       </c>
       <c r="CA50">
-        <v>0.009090909090909092</v>
+        <v>0.1</v>
       </c>
       <c r="CB50">
         <v>3.9</v>
       </c>
       <c r="CC50">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="CD50">
-        <v>0.05454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="CE50">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF50">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG50">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH50">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI50">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ50">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C51">
         <v>910</v>
@@ -13388,13 +14022,13 @@
         <v>435910</v>
       </c>
       <c r="M51">
-        <v>-0.4198378089727265</v>
+        <v>-0.41983780897272649</v>
       </c>
       <c r="N51">
-        <v>28960</v>
+        <v>-0.41306534945662471</v>
       </c>
       <c r="O51">
-        <v>17536</v>
+        <v>-0.44763866344904579</v>
       </c>
       <c r="P51">
         <v>28539</v>
@@ -13415,7 +14049,7 @@
         <v>5601847</v>
       </c>
       <c r="V51">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W51">
         <v>0.1</v>
@@ -13427,7 +14061,7 @@
         <v>3.9</v>
       </c>
       <c r="Z51">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA51">
         <v>0.9</v>
@@ -13448,10 +14082,10 @@
         <v>51.3</v>
       </c>
       <c r="AG51">
-        <v>0.9200779727095517</v>
+        <v>47.2</v>
       </c>
       <c r="AH51">
-        <v>0.09941520467836257</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI51">
         <v>0.4</v>
@@ -13475,7 +14109,7 @@
         <v>2.1</v>
       </c>
       <c r="AP51">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ51">
         <v>5.4</v>
@@ -13547,10 +14181,10 @@
         <v>0.5</v>
       </c>
       <c r="BN51">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BO51">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP51">
         <v>0.6</v>
@@ -13577,39 +14211,51 @@
         <v>6.4</v>
       </c>
       <c r="BX51">
-        <v>0.125</v>
+        <v>1.4</v>
       </c>
       <c r="BY51">
-        <v>0.2678571428571428</v>
+        <v>3</v>
       </c>
       <c r="BZ51">
-        <v>0.1696428571428572</v>
+        <v>1.9</v>
       </c>
       <c r="CA51">
-        <v>0.00892857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="CB51">
         <v>4.8</v>
       </c>
       <c r="CC51">
-        <v>0.3571428571428572</v>
+        <v>4</v>
       </c>
       <c r="CD51">
-        <v>0.07142857142857144</v>
+        <v>0.8</v>
       </c>
       <c r="CE51">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF51">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG51">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH51">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI51">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ51">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C52">
         <v>910</v>
@@ -13642,13 +14288,13 @@
         <v>487171</v>
       </c>
       <c r="M52">
-        <v>-0.211648169792187</v>
+        <v>-0.21164816979218701</v>
       </c>
       <c r="N52">
-        <v>30849</v>
+        <v>-0.1853939600543853</v>
       </c>
       <c r="O52">
-        <v>18232</v>
+        <v>-0.26316441424872872</v>
       </c>
       <c r="P52">
         <v>30693</v>
@@ -13657,13 +14303,13 @@
         <v>10541</v>
       </c>
       <c r="R52">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="S52">
         <v>4586</v>
       </c>
       <c r="T52">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U52">
         <v>5846965</v>
@@ -13681,7 +14327,7 @@
         <v>1.5</v>
       </c>
       <c r="Z52">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA52">
         <v>0.6</v>
@@ -13702,10 +14348,10 @@
         <v>55.6</v>
       </c>
       <c r="AG52">
-        <v>0.9190647482014388</v>
+        <v>51.1</v>
       </c>
       <c r="AH52">
-        <v>0.08992805755395683</v>
+        <v>5</v>
       </c>
       <c r="AI52">
         <v>0.4</v>
@@ -13726,7 +14372,7 @@
         <v>0.6</v>
       </c>
       <c r="AO52">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP52">
         <v>1</v>
@@ -13831,39 +14477,51 @@
         <v>7.1</v>
       </c>
       <c r="BX52">
-        <v>0.1160714285714286</v>
+        <v>1.3</v>
       </c>
       <c r="BY52">
-        <v>0.3482142857142858</v>
+        <v>3.9</v>
       </c>
       <c r="BZ52">
-        <v>0.1607142857142857</v>
+        <v>1.8</v>
       </c>
       <c r="CA52">
-        <v>0.00892857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="CB52">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CC52">
-        <v>0.2946428571428572</v>
+        <v>3.3</v>
       </c>
       <c r="CD52">
-        <v>0.07142857142857144</v>
+        <v>0.8</v>
       </c>
       <c r="CE52">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF52">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG52">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH52">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI52">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ52">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <v>910</v>
@@ -13899,10 +14557,10 @@
         <v>2.60071074265417</v>
       </c>
       <c r="N53">
-        <v>53770</v>
+        <v>2.5771554928247729</v>
       </c>
       <c r="O53">
-        <v>29102</v>
+        <v>2.61792048346312</v>
       </c>
       <c r="P53">
         <v>49831</v>
@@ -13917,7 +14575,7 @@
         <v>8662</v>
       </c>
       <c r="T53">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U53">
         <v>8173941</v>
@@ -13944,7 +14602,7 @@
         <v>1.5</v>
       </c>
       <c r="AC53">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD53">
         <v>13.3</v>
@@ -13956,10 +14614,10 @@
         <v>57.9</v>
       </c>
       <c r="AG53">
-        <v>0.917098445595855</v>
+        <v>53.1</v>
       </c>
       <c r="AH53">
-        <v>0.09326424870466322</v>
+        <v>5.4</v>
       </c>
       <c r="AI53">
         <v>0.5</v>
@@ -13977,7 +14635,7 @@
         <v>0.6</v>
       </c>
       <c r="AN53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO53">
         <v>2.6</v>
@@ -14037,7 +14695,7 @@
         <v>0.8</v>
       </c>
       <c r="BH53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI53">
         <v>0.4</v>
@@ -14085,13 +14743,13 @@
         <v>6.1</v>
       </c>
       <c r="BX53">
-        <v>0.08910891089108912</v>
+        <v>0.9</v>
       </c>
       <c r="BY53">
-        <v>0.3762376237623762</v>
+        <v>3.8</v>
       </c>
       <c r="BZ53">
-        <v>0.1287128712871287</v>
+        <v>1.3</v>
       </c>
       <c r="CA53">
         <v>0</v>
@@ -14100,24 +14758,36 @@
         <v>4</v>
       </c>
       <c r="CC53">
-        <v>0.3564356435643565</v>
+        <v>3.6</v>
       </c>
       <c r="CD53">
-        <v>0.0396039603960396</v>
+        <v>0.4</v>
       </c>
       <c r="CE53">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF53">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG53">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH53">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI53">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ53">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>910</v>
@@ -14150,13 +14820,13 @@
         <v>711581</v>
       </c>
       <c r="M54">
-        <v>0.2184957128122336</v>
+        <v>0.21849571281223359</v>
       </c>
       <c r="N54">
-        <v>34959</v>
+        <v>0.30996305976732152</v>
       </c>
       <c r="O54">
-        <v>19539</v>
+        <v>8.3254901419108199E-2</v>
       </c>
       <c r="P54">
         <v>33871</v>
@@ -14171,7 +14841,7 @@
         <v>6092</v>
       </c>
       <c r="T54">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U54">
         <v>8634750</v>
@@ -14189,7 +14859,7 @@
         <v>1.8</v>
       </c>
       <c r="Z54">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA54">
         <v>0.3</v>
@@ -14210,10 +14880,10 @@
         <v>57.6</v>
       </c>
       <c r="AG54">
-        <v>0.9201388888888888</v>
+        <v>53</v>
       </c>
       <c r="AH54">
-        <v>0.08854166666666666</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI54">
         <v>0.4</v>
@@ -14249,13 +14919,13 @@
         <v>2.6</v>
       </c>
       <c r="AT54">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU54">
         <v>0.7</v>
       </c>
       <c r="AV54">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW54">
         <v>0.4</v>
@@ -14279,7 +14949,7 @@
         <v>0.2</v>
       </c>
       <c r="BD54">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BE54">
         <v>0</v>
@@ -14312,7 +14982,7 @@
         <v>2.6</v>
       </c>
       <c r="BO54">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BP54">
         <v>0.7</v>
@@ -14339,39 +15009,51 @@
         <v>7.8</v>
       </c>
       <c r="BX54">
-        <v>0.1101694915254237</v>
+        <v>1.3</v>
       </c>
       <c r="BY54">
-        <v>0.3983050847457627</v>
+        <v>4.7</v>
       </c>
       <c r="BZ54">
-        <v>0.1525423728813559</v>
+        <v>1.8</v>
       </c>
       <c r="CA54">
-        <v>0.008474576271186441</v>
+        <v>0.1</v>
       </c>
       <c r="CB54">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CC54">
-        <v>0.2796610169491525</v>
+        <v>3.3</v>
       </c>
       <c r="CD54">
-        <v>0.05932203389830508</v>
+        <v>0.7</v>
       </c>
       <c r="CE54">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF54">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG54">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH54">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI54">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ54">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <v>910</v>
@@ -14407,10 +15089,10 @@
         <v>-0.4612880376600616</v>
       </c>
       <c r="N55">
-        <v>28943</v>
+        <v>-0.41511427143642249</v>
       </c>
       <c r="O55">
-        <v>17208</v>
+        <v>-0.53457480387678147</v>
       </c>
       <c r="P55">
         <v>28872</v>
@@ -14419,13 +15101,13 @@
         <v>10594</v>
       </c>
       <c r="R55">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="S55">
         <v>3932</v>
       </c>
       <c r="T55">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U55">
         <v>5288935</v>
@@ -14464,10 +15146,10 @@
         <v>55.5</v>
       </c>
       <c r="AG55">
-        <v>0.9225225225225225</v>
+        <v>51.2</v>
       </c>
       <c r="AH55">
-        <v>0.09189189189189188</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AI55">
         <v>0.4</v>
@@ -14491,19 +15173,19 @@
         <v>1.9</v>
       </c>
       <c r="AP55">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ55">
         <v>5.6</v>
       </c>
       <c r="AR55">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AS55">
         <v>2.8</v>
       </c>
       <c r="AT55">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AU55">
         <v>0.7</v>
@@ -14578,7 +15260,7 @@
         <v>0.1</v>
       </c>
       <c r="BS55">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BT55">
         <v>0.2</v>
@@ -14593,13 +15275,13 @@
         <v>7.7</v>
       </c>
       <c r="BX55">
-        <v>0.1140350877192982</v>
+        <v>1.3</v>
       </c>
       <c r="BY55">
-        <v>0.3947368421052632</v>
+        <v>4.5</v>
       </c>
       <c r="BZ55">
-        <v>0.1578947368421053</v>
+        <v>1.8</v>
       </c>
       <c r="CA55">
         <v>0</v>
@@ -14608,24 +15290,36 @@
         <v>3.7</v>
       </c>
       <c r="CC55">
-        <v>0.2280701754385965</v>
+        <v>2.6</v>
       </c>
       <c r="CD55">
-        <v>0.09649122807017545</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CE55">
-        <v>25973.11111111111</v>
+        <v>32387.222222222219</v>
       </c>
       <c r="CF55">
-        <v>6393.209600818669</v>
+        <v>8297.0460406098755</v>
+      </c>
+      <c r="CG55">
+        <v>3772.884307794237</v>
+      </c>
+      <c r="CH55">
+        <v>19224.888888888891</v>
+      </c>
+      <c r="CI55">
+        <v>25973.111111111109</v>
+      </c>
+      <c r="CJ55">
+        <v>6393.2096008186691</v>
       </c>
     </row>
-    <row r="56" spans="1:84">
+    <row r="56" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C56">
         <v>89</v>
@@ -14658,13 +15352,13 @@
         <v>205545</v>
       </c>
       <c r="M56">
-        <v>-0.5824733670495132</v>
+        <v>-0.58247336704951325</v>
       </c>
       <c r="N56">
-        <v>27959</v>
+        <v>-0.63399234519506786</v>
       </c>
       <c r="O56">
-        <v>17914</v>
+        <v>-0.37510933996163009</v>
       </c>
       <c r="P56">
         <v>27405</v>
@@ -14715,19 +15409,19 @@
         <v>0.4</v>
       </c>
       <c r="AF56">
-        <v>45.5866666666667</v>
+        <v>45.586666666666702</v>
       </c>
       <c r="AG56">
         <v>41.9866666666667</v>
       </c>
       <c r="AH56">
-        <v>4.8</v>
+        <v>4.39333333333333</v>
       </c>
       <c r="AI56">
-        <v>0.433333333333333</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="AJ56">
-        <v>2.83333333333333</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="AK56">
         <v>0.74</v>
@@ -14736,22 +15430,22 @@
         <v>1.5</v>
       </c>
       <c r="AM56">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="AN56">
-        <v>0.4</v>
+        <v>0.46666666666666701</v>
       </c>
       <c r="AO56">
-        <v>1.9</v>
+        <v>1.7266666666666699</v>
       </c>
       <c r="AP56">
-        <v>0.826666666666667</v>
+        <v>0.82666666666666699</v>
       </c>
       <c r="AQ56">
-        <v>5.18666666666667</v>
+        <v>5.1866666666666701</v>
       </c>
       <c r="AR56">
-        <v>2.03333333333333</v>
+        <v>2.0333333333333301</v>
       </c>
       <c r="AS56">
         <v>2.37333333333333</v>
@@ -14760,10 +15454,10 @@
         <v>1.3</v>
       </c>
       <c r="AU56">
-        <v>0.533333333333333</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="AV56">
-        <v>1.50666666666667</v>
+        <v>1.5066666666666699</v>
       </c>
       <c r="AW56">
         <v>0.42</v>
@@ -14778,10 +15472,10 @@
         <v>2.08666666666667</v>
       </c>
       <c r="BA56">
-        <v>0.153333333333333</v>
+        <v>0.15333333333333299</v>
       </c>
       <c r="BB56">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="BC56">
         <v>0.1</v>
@@ -14799,7 +15493,7 @@
         <v>0.8</v>
       </c>
       <c r="BH56">
-        <v>1.22666666666667</v>
+        <v>1.2266666666666699</v>
       </c>
       <c r="BI56">
         <v>0.3</v>
@@ -14811,13 +15505,13 @@
         <v>1.68</v>
       </c>
       <c r="BL56">
-        <v>0.633333333333333</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="BM56">
         <v>0.5</v>
       </c>
       <c r="BN56">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BO56">
         <v>3.6</v>
@@ -14832,7 +15526,7 @@
         <v>0.1</v>
       </c>
       <c r="BS56">
-        <v>0.786666666666667</v>
+        <v>0.78666666666666696</v>
       </c>
       <c r="BT56">
         <v>0.2</v>
@@ -14847,45 +15541,57 @@
         <v>6.7</v>
       </c>
       <c r="BX56">
-        <v>0.127208480565371</v>
+        <v>1.44</v>
       </c>
       <c r="BY56">
-        <v>0.2461719670200239</v>
+        <v>2.7866666666666702</v>
       </c>
       <c r="BZ56">
-        <v>0.2096584216725556</v>
+        <v>2.37333333333333</v>
       </c>
       <c r="CA56">
-        <v>0.005889281507656068</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="CB56">
-        <v>4.70666666666667</v>
+        <v>4.7066666666666697</v>
       </c>
       <c r="CC56">
-        <v>0.353356890459364</v>
+        <v>4</v>
       </c>
       <c r="CD56">
-        <v>0.05182567726737341</v>
+        <v>0.586666666666667</v>
       </c>
       <c r="CE56">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF56">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG56">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH56">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI56">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ56">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="57" spans="1:84">
+    <row r="57" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <v>89</v>
       </c>
       <c r="D57">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E57">
         <v>1320383</v>
@@ -14912,13 +15618,13 @@
         <v>530961</v>
       </c>
       <c r="M57">
-        <v>-0.3751335083018899</v>
+        <v>-0.37513350830188991</v>
       </c>
       <c r="N57">
-        <v>29388</v>
+        <v>-0.43429174388343988</v>
       </c>
       <c r="O57">
-        <v>18687</v>
+        <v>-0.16670527686363751</v>
       </c>
       <c r="P57">
         <v>28919</v>
@@ -14933,7 +15639,7 @@
         <v>7533</v>
       </c>
       <c r="T57">
-        <v>104.6923076923077</v>
+        <v>104.69230769230769</v>
       </c>
       <c r="U57">
         <v>7052177</v>
@@ -14969,13 +15675,13 @@
         <v>0.6</v>
       </c>
       <c r="AF57">
-        <v>50.0333333333333</v>
+        <v>50.033333333333303</v>
       </c>
       <c r="AG57">
-        <v>45.8666666666667</v>
+        <v>45.866666666666703</v>
       </c>
       <c r="AH57">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AI57">
         <v>0.4</v>
@@ -14984,16 +15690,16 @@
         <v>3</v>
       </c>
       <c r="AK57">
-        <v>0.7333333333333329</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AL57">
         <v>1.45333333333333</v>
       </c>
       <c r="AM57">
-        <v>0.713333333333334</v>
+        <v>0.71333333333333404</v>
       </c>
       <c r="AN57">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="AO57">
         <v>1.86</v>
@@ -15002,7 +15708,7 @@
         <v>1.08666666666667</v>
       </c>
       <c r="AQ57">
-        <v>5.47333333333333</v>
+        <v>5.4733333333333301</v>
       </c>
       <c r="AR57">
         <v>1.98</v>
@@ -15014,19 +15720,19 @@
         <v>1.66</v>
       </c>
       <c r="AU57">
-        <v>0.613333333333333</v>
+        <v>0.61333333333333295</v>
       </c>
       <c r="AV57">
         <v>1.72</v>
       </c>
       <c r="AW57">
-        <v>0.386666666666667</v>
+        <v>0.38666666666666699</v>
       </c>
       <c r="AX57">
         <v>0.5</v>
       </c>
       <c r="AY57">
-        <v>0.306666666666667</v>
+        <v>0.30666666666666698</v>
       </c>
       <c r="AZ57">
         <v>2.56</v>
@@ -15035,13 +15741,13 @@
         <v>0.266666666666667</v>
       </c>
       <c r="BB57">
-        <v>0.453333333333333</v>
+        <v>0.45333333333333298</v>
       </c>
       <c r="BC57">
         <v>0.1</v>
       </c>
       <c r="BD57">
-        <v>3.35333333333333</v>
+        <v>3.3533333333333299</v>
       </c>
       <c r="BE57">
         <v>0</v>
@@ -15050,16 +15756,16 @@
         <v>1.12666666666667</v>
       </c>
       <c r="BG57">
-        <v>0.786666666666667</v>
+        <v>0.78666666666666696</v>
       </c>
       <c r="BH57">
         <v>1.34666666666667</v>
       </c>
       <c r="BI57">
-        <v>0.286666666666667</v>
+        <v>0.28666666666666701</v>
       </c>
       <c r="BJ57">
-        <v>0.226666666666667</v>
+        <v>0.22666666666666699</v>
       </c>
       <c r="BK57">
         <v>1.5</v>
@@ -15071,13 +15777,13 @@
         <v>0.44</v>
       </c>
       <c r="BN57">
-        <v>2.25333333333333</v>
+        <v>2.2533333333333299</v>
       </c>
       <c r="BO57">
-        <v>4.16666666666667</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="BP57">
-        <v>0.546666666666666</v>
+        <v>0.54666666666666597</v>
       </c>
       <c r="BQ57">
         <v>0.54</v>
@@ -15086,7 +15792,7 @@
         <v>0.1</v>
       </c>
       <c r="BS57">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="BT57">
         <v>0.16</v>
@@ -15098,42 +15804,54 @@
         <v>12.9133333333333</v>
       </c>
       <c r="BW57">
-        <v>7.37333333333333</v>
+        <v>7.3733333333333304</v>
       </c>
       <c r="BX57">
-        <v>0.1197728446050599</v>
+        <v>1.54666666666667</v>
       </c>
       <c r="BY57">
-        <v>0.2854930304594744</v>
+        <v>3.6866666666666701</v>
       </c>
       <c r="BZ57">
-        <v>0.1631388745482712</v>
+        <v>2.10666666666667</v>
       </c>
       <c r="CA57">
-        <v>0.01032524522457408</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="CB57">
-        <v>5.54666666666667</v>
+        <v>5.5466666666666704</v>
       </c>
       <c r="CC57">
-        <v>0.3779039752194124</v>
+        <v>4.88</v>
       </c>
       <c r="CD57">
-        <v>0.05162622612287057</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="CE57">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF57">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG57">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH57">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI57">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ57">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="58" spans="1:84">
+    <row r="58" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C58">
         <v>89</v>
@@ -15166,13 +15884,13 @@
         <v>401422</v>
       </c>
       <c r="M58">
-        <v>-0.5086238911334816</v>
+        <v>-0.50862389113348161</v>
       </c>
       <c r="N58">
-        <v>28678</v>
+        <v>-0.53351317630559236</v>
       </c>
       <c r="O58">
-        <v>17652</v>
+        <v>-0.44574564595344651</v>
       </c>
       <c r="P58">
         <v>28230</v>
@@ -15187,7 +15905,7 @@
         <v>5757</v>
       </c>
       <c r="T58">
-        <v>99.47142857142858</v>
+        <v>99.471428571428575</v>
       </c>
       <c r="U58">
         <v>5283733</v>
@@ -15226,37 +15944,37 @@
         <v>47.02</v>
       </c>
       <c r="AG58">
-        <v>43.2333333333333</v>
+        <v>43.233333333333299</v>
       </c>
       <c r="AH58">
-        <v>4.46666666666667</v>
+        <v>4.4666666666666703</v>
       </c>
       <c r="AI58">
         <v>0.4</v>
       </c>
       <c r="AJ58">
-        <v>3.03333333333333</v>
+        <v>3.0333333333333301</v>
       </c>
       <c r="AK58">
-        <v>0.686666666666667</v>
+        <v>0.68666666666666698</v>
       </c>
       <c r="AL58">
         <v>1.56</v>
       </c>
       <c r="AM58">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AN58">
-        <v>0.533333333333333</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="AO58">
         <v>1.69333333333333</v>
       </c>
       <c r="AP58">
-        <v>0.906666666666667</v>
+        <v>0.90666666666666695</v>
       </c>
       <c r="AQ58">
-        <v>5.03333333333333</v>
+        <v>5.0333333333333297</v>
       </c>
       <c r="AR58">
         <v>1.91333333333333</v>
@@ -15265,31 +15983,31 @@
         <v>2.58666666666667</v>
       </c>
       <c r="AT58">
-        <v>1.59333333333333</v>
+        <v>1.5933333333333299</v>
       </c>
       <c r="AU58">
         <v>0.6</v>
       </c>
       <c r="AV58">
-        <v>1.70666666666667</v>
+        <v>1.7066666666666701</v>
       </c>
       <c r="AW58">
         <v>0.4</v>
       </c>
       <c r="AX58">
-        <v>0.533333333333333</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="AY58">
         <v>0.233333333333333</v>
       </c>
       <c r="AZ58">
-        <v>2.44666666666667</v>
+        <v>2.4466666666666699</v>
       </c>
       <c r="BA58">
         <v>0.3</v>
       </c>
       <c r="BB58">
-        <v>0.433333333333333</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="BC58">
         <v>0.1</v>
@@ -15301,22 +16019,22 @@
         <v>0</v>
       </c>
       <c r="BF58">
-        <v>1.02666666666667</v>
+        <v>1.0266666666666699</v>
       </c>
       <c r="BG58">
-        <v>0.726666666666667</v>
+        <v>0.72666666666666702</v>
       </c>
       <c r="BH58">
-        <v>1.29333333333333</v>
+        <v>1.2933333333333299</v>
       </c>
       <c r="BI58">
         <v>0.293333333333333</v>
       </c>
       <c r="BJ58">
-        <v>0.246666666666667</v>
+        <v>0.24666666666666701</v>
       </c>
       <c r="BK58">
-        <v>1.52666666666667</v>
+        <v>1.5266666666666699</v>
       </c>
       <c r="BL58">
         <v>0.6</v>
@@ -15328,7 +16046,7 @@
         <v>1.98</v>
       </c>
       <c r="BO58">
-        <v>3.78666666666667</v>
+        <v>3.7866666666666702</v>
       </c>
       <c r="BP58">
         <v>0.586666666666667</v>
@@ -15340,7 +16058,7 @@
         <v>0.1</v>
       </c>
       <c r="BS58">
-        <v>0.926666666666667</v>
+        <v>0.92666666666666697</v>
       </c>
       <c r="BT58">
         <v>0.133333333333333</v>
@@ -15355,39 +16073,51 @@
         <v>7.02</v>
       </c>
       <c r="BX58">
-        <v>0.1200224340998317</v>
+        <v>1.4266666666666701</v>
       </c>
       <c r="BY58">
-        <v>0.2551878855860898</v>
+        <v>3.0333333333333301</v>
       </c>
       <c r="BZ58">
-        <v>0.2086371284352209</v>
+        <v>2.48</v>
       </c>
       <c r="CA58">
-        <v>0.005608524957936049</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="CB58">
-        <v>4.91333333333333</v>
+        <v>4.9133333333333304</v>
       </c>
       <c r="CC58">
-        <v>0.3634324172742558</v>
+        <v>4.32</v>
       </c>
       <c r="CD58">
-        <v>0.04935501962983724</v>
+        <v>0.586666666666667</v>
       </c>
       <c r="CE58">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF58">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG58">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH58">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI58">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ58">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="59" spans="1:84">
+    <row r="59" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <v>89</v>
@@ -15423,10 +16153,10 @@
         <v>-0.3946045102654992</v>
       </c>
       <c r="N59">
-        <v>29485</v>
+        <v>-0.42073613973562479</v>
       </c>
       <c r="O59">
-        <v>17320</v>
+        <v>-0.53525424743925953</v>
       </c>
       <c r="P59">
         <v>28684</v>
@@ -15435,13 +16165,13 @@
         <v>10073</v>
       </c>
       <c r="R59">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S59">
         <v>3929</v>
       </c>
       <c r="T59">
-        <v>78.41999999999999</v>
+        <v>78.419999999999987</v>
       </c>
       <c r="U59">
         <v>4533222</v>
@@ -15459,7 +16189,7 @@
         <v>3.7</v>
       </c>
       <c r="Z59">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA59">
         <v>0.3</v>
@@ -15477,115 +16207,115 @@
         <v>0.6</v>
       </c>
       <c r="AF59">
-        <v>53.3</v>
+        <v>51.926666666666698</v>
       </c>
       <c r="AG59">
-        <v>49.1</v>
+        <v>47.853333333333303</v>
       </c>
       <c r="AH59">
-        <v>5</v>
+        <v>4.9866666666666699</v>
       </c>
       <c r="AI59">
-        <v>0.4</v>
+        <v>0.40666666666666701</v>
       </c>
       <c r="AJ59">
-        <v>3.2</v>
+        <v>3.1533333333333302</v>
       </c>
       <c r="AK59">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="AL59">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AM59">
-        <v>0.7</v>
+        <v>0.61333333333333295</v>
       </c>
       <c r="AN59">
-        <v>0.6</v>
+        <v>0.57333333333333303</v>
       </c>
       <c r="AO59">
-        <v>1.9</v>
+        <v>1.89333333333333</v>
       </c>
       <c r="AP59">
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>5.6</v>
+        <v>5.4866666666666699</v>
       </c>
       <c r="AR59">
-        <v>2.3</v>
+        <v>2.06666666666667</v>
       </c>
       <c r="AS59">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AT59">
-        <v>1.9</v>
+        <v>1.88666666666667</v>
       </c>
       <c r="AU59">
-        <v>0.7</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AV59">
-        <v>2</v>
+        <v>1.91333333333333</v>
       </c>
       <c r="AW59">
-        <v>0.4</v>
+        <v>0.38666666666666699</v>
       </c>
       <c r="AX59">
-        <v>0.6</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="AY59">
         <v>0.3</v>
       </c>
       <c r="AZ59">
-        <v>3</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="BA59">
-        <v>0.3</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="BB59">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BC59">
-        <v>0.2</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="BD59">
-        <v>4</v>
+        <v>3.9733333333333301</v>
       </c>
       <c r="BE59">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BF59">
-        <v>1.3</v>
+        <v>1.2266666666666699</v>
       </c>
       <c r="BG59">
-        <v>0.8</v>
+        <v>0.78666666666666696</v>
       </c>
       <c r="BH59">
-        <v>1.4</v>
+        <v>1.3133333333333299</v>
       </c>
       <c r="BI59">
-        <v>0.4</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="BJ59">
-        <v>0.2</v>
+        <v>0.18666666666666701</v>
       </c>
       <c r="BK59">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL59">
         <v>0.7</v>
       </c>
       <c r="BM59">
-        <v>0.5</v>
+        <v>0.46666666666666701</v>
       </c>
       <c r="BN59">
-        <v>2.5</v>
+        <v>2.4466666666666699</v>
       </c>
       <c r="BO59">
-        <v>4.2</v>
+        <v>4.0933333333333302</v>
       </c>
       <c r="BP59">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="BQ59">
         <v>0.5</v>
@@ -15594,54 +16324,66 @@
         <v>0.1</v>
       </c>
       <c r="BS59">
-        <v>1.1</v>
+        <v>1.13333333333333</v>
       </c>
       <c r="BT59">
-        <v>0.2</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="BU59">
-        <v>1.6</v>
+        <v>1.61333333333333</v>
       </c>
       <c r="BV59">
-        <v>11</v>
+        <v>10.9933333333333</v>
       </c>
       <c r="BW59">
-        <v>7.1</v>
+        <v>7.0333333333333297</v>
       </c>
       <c r="BX59">
-        <v>0.1181818181818182</v>
+        <v>1.2266666666666699</v>
       </c>
       <c r="BY59">
-        <v>0.3363636363636364</v>
+        <v>3.6133333333333302</v>
       </c>
       <c r="BZ59">
-        <v>0.1818181818181818</v>
+        <v>2.0733333333333301</v>
       </c>
       <c r="CA59">
-        <v>0.009090909090909092</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="CB59">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="CC59">
-        <v>0.3</v>
+        <v>3.36</v>
       </c>
       <c r="CD59">
-        <v>0.05454545454545454</v>
+        <v>0.56666666666666698</v>
       </c>
       <c r="CE59">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF59">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG59">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH59">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI59">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ59">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="60" spans="1:84">
+    <row r="60" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C60">
         <v>89</v>
@@ -15674,13 +16416,13 @@
         <v>428864</v>
       </c>
       <c r="M60">
-        <v>-0.4065326916486112</v>
+        <v>-0.40653269164861122</v>
       </c>
       <c r="N60">
-        <v>29747</v>
+        <v>-0.38412203368688691</v>
       </c>
       <c r="O60">
-        <v>17623</v>
+        <v>-0.45356416837238789</v>
       </c>
       <c r="P60">
         <v>28477</v>
@@ -15701,7 +16443,7 @@
         <v>5601847</v>
       </c>
       <c r="V60">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="W60">
         <v>0.1</v>
@@ -15713,7 +16455,7 @@
         <v>3.9</v>
       </c>
       <c r="Z60">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA60">
         <v>0.9</v>
@@ -15734,10 +16476,10 @@
         <v>50.58</v>
       </c>
       <c r="AG60">
-        <v>46.4066666666667</v>
+        <v>46.406666666666702</v>
       </c>
       <c r="AH60">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="AI60">
         <v>0.4</v>
@@ -15746,7 +16488,7 @@
         <v>3.14</v>
       </c>
       <c r="AK60">
-        <v>0.593333333333333</v>
+        <v>0.59333333333333305</v>
       </c>
       <c r="AL60">
         <v>1.54666666666667</v>
@@ -15758,82 +16500,82 @@
         <v>0.586666666666667</v>
       </c>
       <c r="AO60">
-        <v>2.00666666666667</v>
+        <v>2.0066666666666699</v>
       </c>
       <c r="AP60">
         <v>1.10666666666667</v>
       </c>
       <c r="AQ60">
-        <v>5.33333333333333</v>
+        <v>5.3333333333333304</v>
       </c>
       <c r="AR60">
-        <v>2.03333333333333</v>
+        <v>2.0333333333333301</v>
       </c>
       <c r="AS60">
-        <v>2.64666666666667</v>
+        <v>2.6466666666666701</v>
       </c>
       <c r="AT60">
         <v>1.72</v>
       </c>
       <c r="AU60">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AV60">
         <v>1.82666666666667</v>
       </c>
       <c r="AW60">
-        <v>0.286666666666667</v>
+        <v>0.28666666666666701</v>
       </c>
       <c r="AX60">
-        <v>0.633333333333333</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="AY60">
         <v>0.3</v>
       </c>
       <c r="AZ60">
-        <v>2.47333333333333</v>
+        <v>2.4733333333333301</v>
       </c>
       <c r="BA60">
         <v>0.3</v>
       </c>
       <c r="BB60">
-        <v>0.393333333333333</v>
+        <v>0.39333333333333298</v>
       </c>
       <c r="BC60">
         <v>0.1</v>
       </c>
       <c r="BD60">
-        <v>3.65333333333333</v>
+        <v>3.6533333333333302</v>
       </c>
       <c r="BE60">
-        <v>-0.0333333333333334</v>
+        <v>-3.3333333333333402E-2</v>
       </c>
       <c r="BF60">
-        <v>1.18666666666667</v>
+        <v>1.1866666666666701</v>
       </c>
       <c r="BG60">
         <v>0.9</v>
       </c>
       <c r="BH60">
-        <v>1.49333333333333</v>
+        <v>1.4933333333333301</v>
       </c>
       <c r="BI60">
         <v>0.4</v>
       </c>
       <c r="BJ60">
-        <v>0.166666666666667</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="BK60">
-        <v>1.48666666666667</v>
+        <v>1.4866666666666699</v>
       </c>
       <c r="BL60">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="BM60">
-        <v>0.453333333333333</v>
+        <v>0.45333333333333298</v>
       </c>
       <c r="BN60">
-        <v>2.11333333333333</v>
+        <v>2.1133333333333302</v>
       </c>
       <c r="BO60">
         <v>4.2</v>
@@ -15860,42 +16602,54 @@
         <v>11.78</v>
       </c>
       <c r="BW60">
-        <v>6.57333333333333</v>
+        <v>6.5733333333333297</v>
       </c>
       <c r="BX60">
-        <v>0.1228070175438599</v>
+        <v>1.4466666666666701</v>
       </c>
       <c r="BY60">
-        <v>0.2546689303904924</v>
+        <v>3</v>
       </c>
       <c r="BZ60">
-        <v>0.166383701188455</v>
+        <v>1.96</v>
       </c>
       <c r="CA60">
-        <v>0.01245048104131299</v>
+        <v>0.146666666666667</v>
       </c>
       <c r="CB60">
-        <v>5.23333333333333</v>
+        <v>5.2333333333333298</v>
       </c>
       <c r="CC60">
-        <v>0.3769100169779288</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="CD60">
-        <v>0.07357102433503115</v>
+        <v>0.86666666666666703</v>
       </c>
       <c r="CE60">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF60">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG60">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH60">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI60">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ60">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="61" spans="1:84">
+    <row r="61" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <v>89</v>
@@ -15931,10 +16685,10 @@
         <v>-0.1272729157381067</v>
       </c>
       <c r="N61">
-        <v>32023</v>
+        <v>-6.6054455950522284E-2</v>
       </c>
       <c r="O61">
-        <v>18214</v>
+        <v>-0.29422807355878688</v>
       </c>
       <c r="P61">
         <v>31299</v>
@@ -15949,7 +16703,7 @@
         <v>4586</v>
       </c>
       <c r="T61">
-        <v>72.49374999999998</v>
+        <v>72.493749999999977</v>
       </c>
       <c r="U61">
         <v>5846965</v>
@@ -15967,7 +16721,7 @@
         <v>1.5</v>
       </c>
       <c r="Z61">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA61">
         <v>0.6</v>
@@ -15985,34 +16739,34 @@
         <v>0.5</v>
       </c>
       <c r="AF61">
-        <v>55.7933333333333</v>
+        <v>55.793333333333301</v>
       </c>
       <c r="AG61">
-        <v>51.2466666666667</v>
+        <v>51.246666666666698</v>
       </c>
       <c r="AH61">
-        <v>5.05333333333333</v>
+        <v>5.0533333333333301</v>
       </c>
       <c r="AI61">
-        <v>0.426666666666667</v>
+        <v>0.42666666666666703</v>
       </c>
       <c r="AJ61">
         <v>3.41333333333333</v>
       </c>
       <c r="AK61">
-        <v>0.7666666666666661</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="AL61">
         <v>1.71333333333333</v>
       </c>
       <c r="AM61">
-        <v>0.7333333333333329</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AN61">
-        <v>0.633333333333333</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="AO61">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP61">
         <v>1</v>
@@ -16021,7 +16775,7 @@
         <v>5.56</v>
       </c>
       <c r="AR61">
-        <v>2.55333333333333</v>
+        <v>2.5533333333333301</v>
       </c>
       <c r="AS61">
         <v>2.64</v>
@@ -16030,7 +16784,7 @@
         <v>2.02</v>
       </c>
       <c r="AU61">
-        <v>0.686666666666667</v>
+        <v>0.68666666666666698</v>
       </c>
       <c r="AV61">
         <v>2.12666666666667</v>
@@ -16051,25 +16805,25 @@
         <v>0.4</v>
       </c>
       <c r="BB61">
-        <v>0.593333333333333</v>
+        <v>0.59333333333333305</v>
       </c>
       <c r="BC61">
         <v>0.2</v>
       </c>
       <c r="BD61">
-        <v>4.34666666666667</v>
+        <v>4.3466666666666702</v>
       </c>
       <c r="BE61">
         <v>0</v>
       </c>
       <c r="BF61">
-        <v>1.22666666666667</v>
+        <v>1.2266666666666699</v>
       </c>
       <c r="BG61">
-        <v>0.893333333333333</v>
+        <v>0.89333333333333298</v>
       </c>
       <c r="BH61">
-        <v>1.40666666666667</v>
+        <v>1.4066666666666701</v>
       </c>
       <c r="BI61">
         <v>0.42</v>
@@ -16084,16 +16838,16 @@
         <v>0.586666666666667</v>
       </c>
       <c r="BM61">
-        <v>0.506666666666666</v>
+        <v>0.50666666666666604</v>
       </c>
       <c r="BN61">
-        <v>2.67333333333333</v>
+        <v>2.6733333333333298</v>
       </c>
       <c r="BO61">
         <v>4.5</v>
       </c>
       <c r="BP61">
-        <v>0.593333333333333</v>
+        <v>0.59333333333333305</v>
       </c>
       <c r="BQ61">
         <v>0.5</v>
@@ -16111,45 +16865,57 @@
         <v>1.76</v>
       </c>
       <c r="BV61">
-        <v>11.1866666666667</v>
+        <v>11.186666666666699</v>
       </c>
       <c r="BW61">
-        <v>6.87333333333333</v>
+        <v>6.8733333333333304</v>
       </c>
       <c r="BX61">
-        <v>0.1156138259833128</v>
+        <v>1.2933333333333299</v>
       </c>
       <c r="BY61">
-        <v>0.3361144219308691</v>
+        <v>3.76</v>
       </c>
       <c r="BZ61">
-        <v>0.158522050059594</v>
+        <v>1.7733333333333301</v>
       </c>
       <c r="CA61">
-        <v>0.01191895113230029</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="CB61">
-        <v>4.34666666666667</v>
+        <v>4.3466666666666702</v>
       </c>
       <c r="CC61">
-        <v>0.312276519666269</v>
+        <v>3.4933333333333398</v>
       </c>
       <c r="CD61">
-        <v>0.074493444576877</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="CE61">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF61">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG61">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH61">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI61">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ61">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="62" spans="1:84">
+    <row r="62" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C62">
         <v>89</v>
@@ -16185,10 +16951,10 @@
         <v>2.581301330388841</v>
       </c>
       <c r="N62">
-        <v>50724</v>
+        <v>2.5473821746504242</v>
       </c>
       <c r="O62">
-        <v>28971</v>
+        <v>2.6059045354258261</v>
       </c>
       <c r="P62">
         <v>46945</v>
@@ -16203,7 +16969,7 @@
         <v>8662</v>
       </c>
       <c r="T62">
-        <v>98.35312500000001</v>
+        <v>98.353125000000006</v>
       </c>
       <c r="U62">
         <v>8173941</v>
@@ -16230,7 +16996,7 @@
         <v>1.5</v>
       </c>
       <c r="AC62">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD62">
         <v>13.3</v>
@@ -16239,19 +17005,19 @@
         <v>3.4</v>
       </c>
       <c r="AF62">
-        <v>57.0533333333333</v>
+        <v>57.053333333333299</v>
       </c>
       <c r="AG62">
         <v>52.24</v>
       </c>
       <c r="AH62">
-        <v>5.28666666666667</v>
+        <v>5.2866666666666697</v>
       </c>
       <c r="AI62">
-        <v>0.566666666666667</v>
+        <v>0.56666666666666698</v>
       </c>
       <c r="AJ62">
-        <v>3.00666666666667</v>
+        <v>3.0066666666666699</v>
       </c>
       <c r="AK62">
         <v>0.7</v>
@@ -16260,19 +17026,19 @@
         <v>1.44</v>
       </c>
       <c r="AM62">
-        <v>0.633333333333333</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="AN62">
-        <v>1.22666666666667</v>
+        <v>1.2266666666666699</v>
       </c>
       <c r="AO62">
-        <v>2.57333333333333</v>
+        <v>2.5733333333333301</v>
       </c>
       <c r="AP62">
-        <v>0.693333333333333</v>
+        <v>0.69333333333333302</v>
       </c>
       <c r="AQ62">
-        <v>5.00666666666667</v>
+        <v>5.0066666666666704</v>
       </c>
       <c r="AR62">
         <v>3.08666666666667</v>
@@ -16287,28 +17053,28 @@
         <v>0.76</v>
       </c>
       <c r="AV62">
-        <v>1.97333333333333</v>
+        <v>1.9733333333333301</v>
       </c>
       <c r="AW62">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="AX62">
-        <v>0.506666666666667</v>
+        <v>0.50666666666666704</v>
       </c>
       <c r="AY62">
-        <v>0.426666666666667</v>
+        <v>0.42666666666666703</v>
       </c>
       <c r="AZ62">
-        <v>3.73333333333333</v>
+        <v>3.7333333333333298</v>
       </c>
       <c r="BA62">
-        <v>0.453333333333333</v>
+        <v>0.45333333333333298</v>
       </c>
       <c r="BB62">
-        <v>0.753333333333334</v>
+        <v>0.75333333333333397</v>
       </c>
       <c r="BC62">
-        <v>0.0666666666666666</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="BD62">
         <v>5.18</v>
@@ -16323,13 +17089,13 @@
         <v>0.8</v>
       </c>
       <c r="BH62">
-        <v>1.09333333333333</v>
+        <v>1.0933333333333299</v>
       </c>
       <c r="BI62">
         <v>0.4</v>
       </c>
       <c r="BJ62">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="BK62">
         <v>1.46</v>
@@ -16341,13 +17107,13 @@
         <v>0.6</v>
       </c>
       <c r="BN62">
-        <v>2.65333333333333</v>
+        <v>2.6533333333333302</v>
       </c>
       <c r="BO62">
         <v>4.84</v>
       </c>
       <c r="BP62">
-        <v>0.5266666666666669</v>
+        <v>0.52666666666666695</v>
       </c>
       <c r="BQ62">
         <v>0.5</v>
@@ -16356,7 +17122,7 @@
         <v>0.1</v>
       </c>
       <c r="BS62">
-        <v>1.48666666666667</v>
+        <v>1.4866666666666699</v>
       </c>
       <c r="BT62">
         <v>0.38</v>
@@ -16365,45 +17131,57 @@
         <v>1.9</v>
       </c>
       <c r="BV62">
-        <v>10.7066666666667</v>
+        <v>10.706666666666701</v>
       </c>
       <c r="BW62">
-        <v>6.14666666666666</v>
+        <v>6.1466666666666603</v>
       </c>
       <c r="BX62">
-        <v>0.08405977584059758</v>
+        <v>0.90000000000000102</v>
       </c>
       <c r="BY62">
-        <v>0.369240348692402</v>
+        <v>3.95333333333333</v>
       </c>
       <c r="BZ62">
-        <v>0.1139476961394766</v>
+        <v>1.22</v>
       </c>
       <c r="CA62">
         <v>0</v>
       </c>
       <c r="CB62">
-        <v>4.52666666666667</v>
+        <v>4.5266666666666699</v>
       </c>
       <c r="CC62">
-        <v>0.3866749688667484</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="CD62">
-        <v>0.0367372353673722</v>
+        <v>0.39333333333333298</v>
       </c>
       <c r="CE62">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF62">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG62">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH62">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI62">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ62">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="63" spans="1:84">
+    <row r="63" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C63">
         <v>89</v>
@@ -16436,13 +17214,13 @@
         <v>699852</v>
       </c>
       <c r="M63">
-        <v>0.2556567895462095</v>
+        <v>0.25565678954620952</v>
       </c>
       <c r="N63">
-        <v>35018</v>
+        <v>0.35249229067531768</v>
       </c>
       <c r="O63">
-        <v>19877</v>
+        <v>0.15412374653430699</v>
       </c>
       <c r="P63">
         <v>33842</v>
@@ -16457,7 +17235,7 @@
         <v>6092</v>
       </c>
       <c r="T63">
-        <v>68.9348484848485</v>
+        <v>68.934848484848501</v>
       </c>
       <c r="U63">
         <v>8634750</v>
@@ -16475,7 +17253,7 @@
         <v>1.8</v>
       </c>
       <c r="Z63">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA63">
         <v>0.3</v>
@@ -16499,10 +17277,10 @@
         <v>52.76</v>
       </c>
       <c r="AH63">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="AI63">
-        <v>0.386666666666667</v>
+        <v>0.38666666666666699</v>
       </c>
       <c r="AJ63">
         <v>3.58</v>
@@ -16511,13 +17289,13 @@
         <v>0.76</v>
       </c>
       <c r="AL63">
-        <v>1.70666666666667</v>
+        <v>1.7066666666666701</v>
       </c>
       <c r="AM63">
         <v>0.7</v>
       </c>
       <c r="AN63">
-        <v>0.7333333333333329</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AO63">
         <v>2.08666666666667</v>
@@ -16526,52 +17304,52 @@
         <v>1.06666666666667</v>
       </c>
       <c r="AQ63">
-        <v>5.78666666666667</v>
+        <v>5.7866666666666697</v>
       </c>
       <c r="AR63">
-        <v>2.53333333333333</v>
+        <v>2.5333333333333301</v>
       </c>
       <c r="AS63">
-        <v>2.68666666666667</v>
+        <v>2.6866666666666701</v>
       </c>
       <c r="AT63">
-        <v>2.15333333333333</v>
+        <v>2.1533333333333302</v>
       </c>
       <c r="AU63">
         <v>0.68</v>
       </c>
       <c r="AV63">
-        <v>2.25333333333333</v>
+        <v>2.2533333333333299</v>
       </c>
       <c r="AW63">
-        <v>0.433333333333333</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="AX63">
-        <v>0.566666666666667</v>
+        <v>0.56666666666666698</v>
       </c>
       <c r="AY63">
         <v>0.26</v>
       </c>
       <c r="AZ63">
-        <v>3.52666666666667</v>
+        <v>3.5266666666666699</v>
       </c>
       <c r="BA63">
-        <v>0.426666666666667</v>
+        <v>0.42666666666666703</v>
       </c>
       <c r="BB63">
-        <v>0.686666666666666</v>
+        <v>0.68666666666666598</v>
       </c>
       <c r="BC63">
         <v>0.18</v>
       </c>
       <c r="BD63">
-        <v>4.69333333333333</v>
+        <v>4.6933333333333298</v>
       </c>
       <c r="BE63">
-        <v>0.0466666666666667</v>
+        <v>4.6666666666666697E-2</v>
       </c>
       <c r="BF63">
-        <v>1.35333333333333</v>
+        <v>1.3533333333333299</v>
       </c>
       <c r="BG63">
         <v>0.92</v>
@@ -16580,7 +17358,7 @@
         <v>1.34</v>
       </c>
       <c r="BI63">
-        <v>0.386666666666667</v>
+        <v>0.38666666666666699</v>
       </c>
       <c r="BJ63">
         <v>0.3</v>
@@ -16589,7 +17367,7 @@
         <v>1.65333333333333</v>
       </c>
       <c r="BL63">
-        <v>0.633333333333333</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="BM63">
         <v>0.586666666666667</v>
@@ -16598,25 +17376,25 @@
         <v>2.6</v>
       </c>
       <c r="BO63">
-        <v>4.72666666666667</v>
+        <v>4.7266666666666701</v>
       </c>
       <c r="BP63">
-        <v>0.7333333333333329</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="BQ63">
         <v>0.5</v>
       </c>
       <c r="BR63">
-        <v>0.08666666666666679</v>
+        <v>8.6666666666666795E-2</v>
       </c>
       <c r="BS63">
         <v>1.39333333333333</v>
       </c>
       <c r="BT63">
-        <v>0.186666666666667</v>
+        <v>0.18666666666666701</v>
       </c>
       <c r="BU63">
-        <v>1.79333333333333</v>
+        <v>1.7933333333333299</v>
       </c>
       <c r="BV63">
         <v>11.9333333333333</v>
@@ -16625,45 +17403,57 @@
         <v>7.67333333333334</v>
       </c>
       <c r="BX63">
-        <v>0.1033519553072626</v>
+        <v>1.2333333333333301</v>
       </c>
       <c r="BY63">
-        <v>0.3905027932960905</v>
+        <v>4.66</v>
       </c>
       <c r="BZ63">
-        <v>0.1458100558659222</v>
+        <v>1.74</v>
       </c>
       <c r="CA63">
-        <v>0.01173184357541903</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CB63">
-        <v>4.37333333333333</v>
+        <v>4.3733333333333304</v>
       </c>
       <c r="CC63">
-        <v>0.2983240223463696</v>
+        <v>3.56</v>
       </c>
       <c r="CD63">
-        <v>0.06201117318435771</v>
+        <v>0.74</v>
       </c>
       <c r="CE63">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF63">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG63">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH63">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI63">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ63">
+        <v>5700.7852090742726</v>
       </c>
     </row>
-    <row r="64" spans="1:84">
+    <row r="64" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>89</v>
       </c>
       <c r="D64">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E64">
         <v>923435</v>
@@ -16690,13 +17480,13 @@
         <v>493831</v>
       </c>
       <c r="M64">
-        <v>-0.4423172357979472</v>
+        <v>-0.44231723579794718</v>
       </c>
       <c r="N64">
-        <v>29439</v>
+        <v>-0.42716457056860929</v>
       </c>
       <c r="O64">
-        <v>17490</v>
+        <v>-0.48942152981098169</v>
       </c>
       <c r="P64">
         <v>28850</v>
@@ -16711,7 +17501,7 @@
         <v>3932</v>
       </c>
       <c r="T64">
-        <v>69.08611111111109</v>
+        <v>69.086111111111094</v>
       </c>
       <c r="U64">
         <v>5288935</v>
@@ -16759,10 +17549,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ64">
-        <v>3.74666666666667</v>
+        <v>3.7466666666666701</v>
       </c>
       <c r="AK64">
-        <v>0.6466666666666669</v>
+        <v>0.64666666666666694</v>
       </c>
       <c r="AL64">
         <v>1.65333333333333</v>
@@ -16771,25 +17561,25 @@
         <v>0.8</v>
       </c>
       <c r="AN64">
-        <v>0.7333333333333329</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AO64">
         <v>1.91333333333333</v>
       </c>
       <c r="AP64">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ64">
-        <v>5.72666666666667</v>
+        <v>5.7266666666666701</v>
       </c>
       <c r="AR64">
-        <v>2.16666666666667</v>
+        <v>2.1666666666666701</v>
       </c>
       <c r="AS64">
-        <v>2.88666666666667</v>
+        <v>2.8866666666666698</v>
       </c>
       <c r="AT64">
-        <v>2.28666666666667</v>
+        <v>2.2866666666666702</v>
       </c>
       <c r="AU64">
         <v>0.7</v>
@@ -16798,28 +17588,28 @@
         <v>2.12</v>
       </c>
       <c r="AW64">
-        <v>0.433333333333333</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="AX64">
-        <v>0.633333333333333</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="AY64">
         <v>0.3</v>
       </c>
       <c r="AZ64">
-        <v>3.21333333333333</v>
+        <v>3.2133333333333298</v>
       </c>
       <c r="BA64">
-        <v>0.286666666666667</v>
+        <v>0.28666666666666701</v>
       </c>
       <c r="BB64">
-        <v>0.506666666666666</v>
+        <v>0.50666666666666604</v>
       </c>
       <c r="BC64">
         <v>0.2</v>
       </c>
       <c r="BD64">
-        <v>4.22666666666667</v>
+        <v>4.2266666666666701</v>
       </c>
       <c r="BE64">
         <v>0</v>
@@ -16828,7 +17618,7 @@
         <v>1.36666666666667</v>
       </c>
       <c r="BG64">
-        <v>0.893333333333333</v>
+        <v>0.89333333333333298</v>
       </c>
       <c r="BH64">
         <v>1.38666666666667</v>
@@ -16840,37 +17630,37 @@
         <v>0.3</v>
       </c>
       <c r="BK64">
-        <v>1.75333333333333</v>
+        <v>1.7533333333333301</v>
       </c>
       <c r="BL64">
         <v>0.6</v>
       </c>
       <c r="BM64">
-        <v>0.593333333333333</v>
+        <v>0.59333333333333305</v>
       </c>
       <c r="BN64">
-        <v>2.52666666666667</v>
+        <v>2.5266666666666699</v>
       </c>
       <c r="BO64">
-        <v>4.23333333333333</v>
+        <v>4.2333333333333298</v>
       </c>
       <c r="BP64">
-        <v>0.693333333333333</v>
+        <v>0.69333333333333302</v>
       </c>
       <c r="BQ64">
-        <v>0.566666666666667</v>
+        <v>0.56666666666666698</v>
       </c>
       <c r="BR64">
         <v>0.1</v>
       </c>
       <c r="BS64">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="BT64">
         <v>0.16</v>
       </c>
       <c r="BU64">
-        <v>1.49333333333333</v>
+        <v>1.4933333333333301</v>
       </c>
       <c r="BV64">
         <v>11.74</v>
@@ -16879,31 +17669,43 @@
         <v>7.88</v>
       </c>
       <c r="BX64">
-        <v>0.1073253833049404</v>
+        <v>1.26</v>
       </c>
       <c r="BY64">
-        <v>0.4099943214082905</v>
+        <v>4.8133333333333299</v>
       </c>
       <c r="BZ64">
-        <v>0.1482112436115843</v>
+        <v>1.74</v>
       </c>
       <c r="CA64">
-        <v>0.0005678591709255996</v>
+        <v>6.6666666666665396E-3</v>
       </c>
       <c r="CB64">
-        <v>3.88666666666667</v>
+        <v>3.8866666666666698</v>
       </c>
       <c r="CC64">
-        <v>0.2339579784213518</v>
+        <v>2.7466666666666701</v>
       </c>
       <c r="CD64">
-        <v>0.09710391822827938</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="CE64">
-        <v>26038.55555555555</v>
+        <v>32495.666666666672</v>
       </c>
       <c r="CF64">
-        <v>5700.785209074273</v>
+        <v>7155.712054016707</v>
+      </c>
+      <c r="CG64">
+        <v>3709.1407360735179</v>
+      </c>
+      <c r="CH64">
+        <v>19305.333333333328</v>
+      </c>
+      <c r="CI64">
+        <v>26038.555555555551</v>
+      </c>
+      <c r="CJ64">
+        <v>5700.7852090742726</v>
       </c>
     </row>
   </sheetData>
